--- a/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>LMDCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,129 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>600</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>700</v>
+      </c>
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>600</v>
+      </c>
+      <c r="M8" s="3">
+        <v>300</v>
+      </c>
+      <c r="N8" s="3">
+        <v>800</v>
+      </c>
+      <c r="O8" s="3">
+        <v>400</v>
+      </c>
+      <c r="P8" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>800</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>600</v>
-      </c>
-      <c r="L8" s="3">
-        <v>300</v>
-      </c>
-      <c r="M8" s="3">
-        <v>800</v>
-      </c>
-      <c r="N8" s="3">
-        <v>400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>500</v>
-      </c>
-      <c r="P8" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -790,81 +796,87 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>500</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>600</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>700</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
-      </c>
-      <c r="N10" s="3">
-        <v>400</v>
       </c>
       <c r="O10" s="3">
         <v>400</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -905,13 +918,13 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2000</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>8</v>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,13 +985,16 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -983,11 +1002,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -995,11 +1014,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>1600</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1013,19 +1032,22 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1040,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
         <v>300</v>
-      </c>
-      <c r="M15" s="3">
-        <v>200</v>
       </c>
       <c r="N15" s="3">
         <v>200</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1097,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1087,81 +1113,87 @@
         <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>600</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>300</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,13 +1210,14 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1208,66 +1241,72 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>300</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
-      </c>
-      <c r="N21" s="3">
-        <v>200</v>
       </c>
       <c r="O21" s="3">
         <v>200</v>
       </c>
       <c r="P21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>500</v>
-      </c>
       <c r="J23" s="3">
+        <v>400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1363,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1375,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1387,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,41 +1490,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-300</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>400</v>
-      </c>
       <c r="J26" s="3">
+        <v>300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1484,43 +1535,46 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-300</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>400</v>
-      </c>
       <c r="J27" s="3">
+        <v>300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1528,10 +1582,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,13 +1772,16 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1736,55 +1805,58 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-300</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>400</v>
-      </c>
       <c r="J33" s="3">
+        <v>300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -1792,10 +1864,13 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,41 +1913,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-300</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>400</v>
-      </c>
       <c r="J35" s="3">
+        <v>300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -1880,59 +1958,65 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,16 +2144,19 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F43" s="3">
         <v>800</v>
@@ -2073,34 +2165,37 @@
         <v>700</v>
       </c>
       <c r="H43" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I43" s="3">
         <v>800</v>
       </c>
       <c r="J43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K43" s="3">
         <v>700</v>
       </c>
       <c r="L43" s="3">
+        <v>700</v>
+      </c>
+      <c r="M43" s="3">
         <v>1600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2170,69 +2268,75 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
+        <v>800</v>
+      </c>
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
-        <v>900</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2261,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>200</v>
@@ -2272,22 +2376,25 @@
       <c r="O47" s="3">
         <v>200</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="P47" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2349,22 +2459,25 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>3000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
+        <v>900</v>
+      </c>
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
+        <v>900</v>
+      </c>
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
-        <v>900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>5500</v>
       </c>
       <c r="O54" s="3">
         <v>5500</v>
       </c>
       <c r="P54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Q54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,7 +2758,7 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -2637,22 +2767,22 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -2661,10 +2791,13 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2674,59 +2807,62 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
       <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
       </c>
       <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
-        <v>100</v>
-      </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
@@ -2737,13 +2873,13 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -2751,63 +2887,69 @@
       <c r="P59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
-        <v>600</v>
-      </c>
       <c r="H60" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>700</v>
       </c>
       <c r="J60" s="3">
+        <v>600</v>
+      </c>
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
-        <v>300</v>
-      </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2865,8 +3010,8 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,13 +3169,16 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>800</v>
+      <c r="D66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E66" s="3">
         <v>800</v>
@@ -3030,37 +3187,40 @@
         <v>700</v>
       </c>
       <c r="G66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H66" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
       </c>
       <c r="J66" s="3">
+        <v>600</v>
+      </c>
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-19000</v>
+        <v>-18100</v>
       </c>
       <c r="E72" s="3">
-        <v>-18800</v>
+        <v>-18400</v>
       </c>
       <c r="F72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-19100</v>
       </c>
-      <c r="G72" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-18900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-13800</v>
       </c>
       <c r="N72" s="3">
         <v>-13800</v>
       </c>
       <c r="O72" s="3">
-        <v>-14300</v>
+        <v>-13800</v>
       </c>
       <c r="P72" s="3">
         <v>-14300</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-14300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>600</v>
+      </c>
+      <c r="E76" s="3">
         <v>300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>5000</v>
       </c>
       <c r="P76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,90 +3705,96 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-300</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>400</v>
-      </c>
       <c r="J81" s="3">
+        <v>300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -3608,10 +3802,13 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,19 +3825,20 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3655,13 +3853,13 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>-300</v>
-      </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3971,8 +4191,8 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
@@ -3980,26 +4200,29 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>-300</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4113,25 +4342,28 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>1400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>200</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>LMDCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,131 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
+        <v>200</v>
+      </c>
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,7 +797,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -799,84 +806,90 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H10" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
-      </c>
-      <c r="O10" s="3">
-        <v>400</v>
       </c>
       <c r="P10" s="3">
         <v>400</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -912,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -921,13 +935,13 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
+        <v>200</v>
+      </c>
+      <c r="M12" s="3">
         <v>2000</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>8</v>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,16 +1005,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1005,11 +1025,11 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1017,11 +1037,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>1600</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1035,22 +1055,25 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1065,14 +1088,14 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
         <v>300</v>
       </c>
-      <c r="N15" s="3">
-        <v>200</v>
-      </c>
       <c r="O15" s="3">
         <v>200</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,13 +1124,14 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
@@ -1116,84 +1143,90 @@
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>600</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>600</v>
       </c>
       <c r="Q17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>200</v>
-      </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,13 +1244,14 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1244,74 +1278,80 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
-        <v>200</v>
-      </c>
       <c r="P21" s="3">
         <v>200</v>
       </c>
       <c r="Q21" s="3">
+        <v>200</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1411,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1423,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1435,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,44 +1542,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>200</v>
       </c>
       <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>300</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1538,46 +1590,49 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>200</v>
       </c>
       <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>300</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1585,10 +1640,13 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,13 +1842,16 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1808,58 +1878,61 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>200</v>
       </c>
       <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>300</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -1867,10 +1940,13 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,44 +1992,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>200</v>
       </c>
       <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>300</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -1961,62 +2040,68 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,55 +2237,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
-      </c>
-      <c r="E43" s="3">
-        <v>700</v>
       </c>
       <c r="F43" s="3">
         <v>800</v>
       </c>
       <c r="G43" s="3">
+        <v>800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>800</v>
+      </c>
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
-        <v>700</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
+        <v>900</v>
+      </c>
+      <c r="K43" s="3">
         <v>800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>700</v>
       </c>
       <c r="L43" s="3">
         <v>700</v>
       </c>
       <c r="M43" s="3">
+        <v>700</v>
+      </c>
+      <c r="N43" s="3">
         <v>1600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2271,39 +2370,42 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
+      <c r="D46" s="3">
+        <v>1400</v>
       </c>
       <c r="E46" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F46" s="3">
+        <v>900</v>
+      </c>
+      <c r="G46" s="3">
         <v>1000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>800</v>
       </c>
       <c r="H46" s="3">
         <v>900</v>
@@ -2315,28 +2417,31 @@
         <v>1000</v>
       </c>
       <c r="K46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2368,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>200</v>
@@ -2379,11 +2484,14 @@
       <c r="P47" s="3">
         <v>200</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="Q47" s="3">
+        <v>200</v>
+      </c>
+      <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2391,13 +2499,13 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2462,22 +2573,25 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>3000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,22 +2787,25 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="E54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>900</v>
       </c>
       <c r="H54" s="3">
         <v>900</v>
@@ -2688,31 +2814,34 @@
         <v>1000</v>
       </c>
       <c r="J54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5200</v>
-      </c>
-      <c r="O54" s="3">
-        <v>5500</v>
       </c>
       <c r="P54" s="3">
         <v>5500</v>
       </c>
       <c r="Q54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="R54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,16 +2879,17 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -2770,23 +2901,23 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
-        <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
-      </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
@@ -2794,78 +2925,84 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
-        <v>200</v>
-      </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
       <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
       </c>
       <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
@@ -2876,13 +3013,13 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -2890,69 +3027,75 @@
       <c r="Q59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
+      <c r="D60" s="3">
+        <v>500</v>
       </c>
       <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
-        <v>500</v>
-      </c>
       <c r="I60" s="3">
+        <v>600</v>
+      </c>
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3013,8 +3159,8 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
+      <c r="D66" s="3">
+        <v>900</v>
       </c>
       <c r="E66" s="3">
+        <v>900</v>
+      </c>
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
+        <v>800</v>
+      </c>
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
+        <v>600</v>
+      </c>
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
-        <v>500</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
+        <v>600</v>
+      </c>
+      <c r="L66" s="3">
+        <v>900</v>
+      </c>
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3">
+        <v>300</v>
+      </c>
+      <c r="P66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
-        <v>900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>700</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
-        <v>300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-18100</v>
       </c>
-      <c r="E72" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-18100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-18100</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14200</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-13800</v>
       </c>
       <c r="O72" s="3">
         <v>-13800</v>
       </c>
       <c r="P72" s="3">
-        <v>-14300</v>
+        <v>-13800</v>
       </c>
       <c r="Q72" s="3">
         <v>-14300</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-14300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>900</v>
+      </c>
+      <c r="E76" s="3">
         <v>600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>500</v>
       </c>
-      <c r="G76" s="3">
-        <v>200</v>
-      </c>
       <c r="H76" s="3">
+        <v>200</v>
+      </c>
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4800</v>
-      </c>
-      <c r="P76" s="3">
-        <v>5000</v>
       </c>
       <c r="Q76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,96 +3897,102 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>200</v>
       </c>
       <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>300</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -3805,10 +4000,13 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,22 +4024,23 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -3856,14 +4055,14 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
-        <v>200</v>
-      </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4117,46 +4334,49 @@
         <v>200</v>
       </c>
       <c r="E89" s="3">
+        <v>300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
       <c r="H89" s="3">
-        <v>200</v>
+        <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
-        <v>200</v>
-      </c>
       <c r="Q89" s="3">
+        <v>200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,13 +4394,14 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4194,8 +4415,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -4203,26 +4424,29 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>-300</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4345,25 +4575,28 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>1400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
-        <v>200</v>
-      </c>
       <c r="L100" s="3">
         <v>200</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
-        <v>200</v>
-      </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>200</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>200</v>
-      </c>
       <c r="P102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>LMDCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,89 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,81 +755,87 @@
         <v>8</v>
       </c>
       <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
-        <v>200</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
+        <v>200</v>
+      </c>
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -836,10 +850,16 @@
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,49 +867,55 @@
         <v>8</v>
       </c>
       <c r="E10" s="3">
+        <v>700</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,13 +934,15 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -929,25 +957,25 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
+        <v>200</v>
+      </c>
+      <c r="O12" s="3">
         <v>2000</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>8</v>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,46 +1042,52 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>1600</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>1600</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1058,8 +1098,14 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1067,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1079,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1091,25 +1137,31 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3">
         <v>300</v>
       </c>
-      <c r="O15" s="3">
-        <v>200</v>
-      </c>
-      <c r="P15" s="3">
-        <v>200</v>
-      </c>
       <c r="Q15" s="3">
         <v>200</v>
       </c>
       <c r="R15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>200</v>
+      </c>
+      <c r="T15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,19 +1177,21 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>-100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
@@ -1146,37 +1200,43 @@
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>600</v>
       </c>
       <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1244,55 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>200</v>
+      </c>
+      <c r="G18" s="3">
         <v>300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>400</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
-        <v>200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>200</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1281,22 +1349,28 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>100</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,61 +1378,67 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>200</v>
+      </c>
+      <c r="G21" s="3">
         <v>300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>500</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-4200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>200</v>
-      </c>
       <c r="R21" s="3">
+        <v>200</v>
+      </c>
+      <c r="S21" s="3">
+        <v>200</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1395,58 +1475,70 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
         <v>300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>400</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-4300</v>
       </c>
       <c r="N23" s="3">
         <v>-400</v>
       </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>-4300</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1454,49 +1546,55 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F26" s="3">
-        <v>-300</v>
+        <v>200</v>
       </c>
       <c r="G26" s="3">
         <v>300</v>
       </c>
       <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-4300</v>
       </c>
       <c r="N26" s="3">
         <v>-400</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F27" s="3">
-        <v>-300</v>
+        <v>200</v>
       </c>
       <c r="G27" s="3">
         <v>300</v>
       </c>
       <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-4300</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1881,72 +2021,84 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>200</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F33" s="3">
-        <v>-300</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3">
         <v>300</v>
       </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-4300</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F35" s="3">
-        <v>-300</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3">
         <v>300</v>
       </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-4300</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,31 +2312,33 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>900</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
@@ -2176,22 +2350,28 @@
         <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>200</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,58 +2420,70 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>800</v>
+      </c>
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
-      </c>
-      <c r="F43" s="3">
-        <v>800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>800</v>
       </c>
       <c r="H43" s="3">
         <v>800</v>
       </c>
       <c r="I43" s="3">
+        <v>800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>800</v>
+      </c>
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1700</v>
-      </c>
-      <c r="P43" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>2300</v>
       </c>
       <c r="R43" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T43" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2532,14 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2373,25 +2571,31 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2399,13 +2603,13 @@
         <v>1400</v>
       </c>
       <c r="E46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G46" s="3">
         <v>1100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>900</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1000</v>
       </c>
       <c r="H46" s="3">
         <v>900</v>
@@ -2414,34 +2618,40 @@
         <v>1000</v>
       </c>
       <c r="J46" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K46" s="3">
         <v>1000</v>
       </c>
       <c r="L46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2476,10 +2686,10 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>200</v>
@@ -2487,11 +2697,17 @@
       <c r="Q47" s="3">
         <v>200</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="R47" s="3">
+        <v>200</v>
+      </c>
+      <c r="S47" s="3">
+        <v>200</v>
+      </c>
+      <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2502,17 +2718,17 @@
         <v>400</v>
       </c>
       <c r="F48" s="3">
+        <v>400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>400</v>
+      </c>
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
@@ -2540,8 +2756,14 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2576,22 +2798,28 @@
         <v>0</v>
       </c>
       <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>3000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2980,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1100</v>
       </c>
       <c r="K54" s="3">
         <v>1000</v>
       </c>
       <c r="L54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N54" s="3">
         <v>900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3140,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2889,10 +3151,10 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -2904,13 +3166,13 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
@@ -2919,19 +3181,25 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2939,76 +3207,82 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
-      </c>
-      <c r="F58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
-        <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
       </c>
       <c r="G59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
       </c>
       <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>400</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>100</v>
-      </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
@@ -3016,7 +3290,7 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -3025,33 +3299,39 @@
         <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>600</v>
       </c>
       <c r="G60" s="3">
         <v>500</v>
       </c>
       <c r="H60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J60" s="3">
         <v>700</v>
@@ -3060,28 +3340,34 @@
         <v>600</v>
       </c>
       <c r="L60" s="3">
+        <v>700</v>
+      </c>
+      <c r="M60" s="3">
+        <v>600</v>
+      </c>
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3092,17 +3378,17 @@
         <v>400</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G61" s="3">
+        <v>400</v>
+      </c>
+      <c r="H61" s="3">
+        <v>200</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3130,8 +3416,14 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3162,11 +3454,11 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3180,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,28 +3640,34 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>800</v>
+      </c>
+      <c r="F66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>600</v>
       </c>
       <c r="J66" s="3">
         <v>700</v>
@@ -3360,28 +3676,34 @@
         <v>600</v>
       </c>
       <c r="L66" s="3">
+        <v>700</v>
+      </c>
+      <c r="M66" s="3">
+        <v>600</v>
+      </c>
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3942,14 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3609,49 +3957,55 @@
         <v>-18800</v>
       </c>
       <c r="E72" s="3">
-        <v>-18900</v>
+        <v>-18500</v>
       </c>
       <c r="F72" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-19200</v>
       </c>
-      <c r="G72" s="3">
-        <v>-19000</v>
-      </c>
       <c r="H72" s="3">
-        <v>-19300</v>
+        <v>-19500</v>
       </c>
       <c r="I72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-19100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-18100</v>
       </c>
       <c r="L72" s="3">
         <v>-19100</v>
       </c>
       <c r="M72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="O72" s="3">
         <v>-18500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-14200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-13800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-14300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F76" s="3">
         <v>900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="H76" s="3">
-        <v>200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>400</v>
-      </c>
       <c r="J76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K76" s="3">
         <v>400</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M76" s="3">
         <v>400</v>
       </c>
       <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>400</v>
+      </c>
+      <c r="P76" s="3">
         <v>4500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>5000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F81" s="3">
-        <v>-300</v>
+        <v>200</v>
       </c>
       <c r="G81" s="3">
         <v>300</v>
       </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-4300</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4040,13 +4438,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -4058,25 +4456,31 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
-        <v>200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
-      </c>
       <c r="Q83" s="3">
         <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
         <v>300</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="G89" s="3">
         <v>300</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>200</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
+        <v>200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
-        <v>200</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
+        <v>200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,19 +4835,21 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4418,35 +4860,41 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4578,25 +5038,31 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>1400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-700</v>
       </c>
       <c r="Q94" s="3">
         <v>-500</v>
       </c>
       <c r="R94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5301,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4824,49 +5316,55 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
-        <v>200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>200</v>
-      </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
+        <v>200</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,22 +5413,28 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
         <v>300</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
@@ -4945,24 +5449,30 @@
         <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
-        <v>200</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="P102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>-200</v>
       </c>
       <c r="R102" s="3">
+        <v>200</v>
+      </c>
+      <c r="S102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
@@ -867,13 +867,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="3">
         <v>900</v>
       </c>
       <c r="F41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G41" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
@@ -2438,10 +2438,10 @@
         <v>800</v>
       </c>
       <c r="F43" s="3">
+        <v>800</v>
+      </c>
+      <c r="G43" s="3">
         <v>700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>600</v>
       </c>
       <c r="H43" s="3">
         <v>800</v>
@@ -2603,7 +2603,7 @@
         <v>1400</v>
       </c>
       <c r="E46" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F46" s="3">
         <v>1400</v>
@@ -2615,7 +2615,7 @@
         <v>900</v>
       </c>
       <c r="I46" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J46" s="3">
         <v>900</v>
@@ -3048,10 +3048,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E54" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F54" s="3">
         <v>1800</v>
@@ -3060,13 +3060,13 @@
         <v>1500</v>
       </c>
       <c r="H54" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I54" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J54" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K54" s="3">
         <v>1000</v>
@@ -3272,7 +3272,7 @@
         <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
@@ -3334,7 +3334,7 @@
         <v>500</v>
       </c>
       <c r="J60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
@@ -3670,7 +3670,7 @@
         <v>800</v>
       </c>
       <c r="J66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K66" s="3">
         <v>600</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18800</v>
+        <v>-19300</v>
       </c>
       <c r="E72" s="3">
-        <v>-18500</v>
+        <v>-19000</v>
       </c>
       <c r="F72" s="3">
-        <v>-19000</v>
+        <v>-19500</v>
       </c>
       <c r="G72" s="3">
-        <v>-19200</v>
+        <v>-19700</v>
       </c>
       <c r="H72" s="3">
-        <v>-19500</v>
+        <v>-20000</v>
       </c>
       <c r="I72" s="3">
-        <v>-19200</v>
+        <v>-19800</v>
       </c>
       <c r="J72" s="3">
-        <v>-19500</v>
+        <v>-20100</v>
       </c>
       <c r="K72" s="3">
         <v>-19100</v>
@@ -4178,10 +4178,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E76" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F76" s="3">
         <v>900</v>
@@ -4193,7 +4193,7 @@
         <v>300</v>
       </c>
       <c r="I76" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J76" s="3">
         <v>200</v>

--- a/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>LMDCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,162 +665,168 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>800</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>700</v>
+      </c>
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>500</v>
+      </c>
+      <c r="M8" s="3">
+        <v>200</v>
+      </c>
+      <c r="N8" s="3">
+        <v>700</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="Q8" s="3">
+        <v>300</v>
+      </c>
+      <c r="R8" s="3">
+        <v>800</v>
+      </c>
+      <c r="S8" s="3">
+        <v>400</v>
+      </c>
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
-        <v>200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>800</v>
-      </c>
-      <c r="R8" s="3">
-        <v>400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>500</v>
-      </c>
-      <c r="T8" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -829,93 +835,99 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>700</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>800</v>
-      </c>
-      <c r="R10" s="3">
-        <v>400</v>
       </c>
       <c r="S10" s="3">
         <v>400</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,7 +958,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -963,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -972,13 +985,13 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
+        <v>200</v>
+      </c>
+      <c r="P12" s="3">
         <v>2000</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>8</v>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,25 +1064,28 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1074,11 +1093,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1086,11 +1105,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>1600</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1119,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1143,14 +1165,14 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3">
         <v>300</v>
       </c>
-      <c r="Q15" s="3">
-        <v>200</v>
-      </c>
       <c r="R15" s="3">
         <v>200</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,22 +1204,23 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>-100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
@@ -1206,93 +1232,99 @@
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
-        <v>200</v>
-      </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4900</v>
-      </c>
-      <c r="P17" s="3">
-        <v>600</v>
       </c>
       <c r="Q17" s="3">
         <v>600</v>
       </c>
       <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>600</v>
       </c>
       <c r="T17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>600</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>600</v>
       </c>
-      <c r="F18" s="3">
-        <v>200</v>
-      </c>
       <c r="G18" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H18" s="3">
+        <v>400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>400</v>
-      </c>
       <c r="J18" s="3">
+        <v>500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>200</v>
-      </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1345,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1355,78 +1388,84 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>600</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
-        <v>200</v>
-      </c>
       <c r="G21" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H21" s="3">
+        <v>400</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
-        <v>200</v>
-      </c>
       <c r="S21" s="3">
         <v>200</v>
       </c>
       <c r="T21" s="3">
+        <v>200</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,12 +1475,12 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1481,75 +1520,81 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
-        <v>200</v>
-      </c>
       <c r="G23" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H23" s="3">
+        <v>400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1558,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1570,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1582,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,53 +1697,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
-        <v>200</v>
-      </c>
       <c r="G26" s="3">
+        <v>200</v>
+      </c>
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>300</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -1703,55 +1754,58 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
-        <v>200</v>
-      </c>
       <c r="G27" s="3">
+        <v>200</v>
+      </c>
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>400</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>300</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -1759,10 +1813,13 @@
         <v>0</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2051,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2027,67 +2096,70 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
-        <v>200</v>
-      </c>
       <c r="G33" s="3">
+        <v>200</v>
+      </c>
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>400</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>300</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2095,10 +2167,13 @@
         <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,53 +2228,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
-        <v>200</v>
-      </c>
       <c r="G35" s="3">
+        <v>200</v>
+      </c>
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>400</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>300</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2207,71 +2285,77 @@
         <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2515,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E43" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>800</v>
       </c>
       <c r="G43" s="3">
+        <v>800</v>
+      </c>
+      <c r="H43" s="3">
         <v>700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>800</v>
       </c>
       <c r="I43" s="3">
         <v>800</v>
       </c>
       <c r="J43" s="3">
+        <v>900</v>
+      </c>
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
-      </c>
-      <c r="N43" s="3">
-        <v>700</v>
       </c>
       <c r="O43" s="3">
         <v>700</v>
       </c>
       <c r="P43" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2577,51 +2675,54 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="E46" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="F46" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="G46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>900</v>
+      </c>
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>900</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1000</v>
       </c>
       <c r="L46" s="3">
         <v>1000</v>
@@ -2630,28 +2731,31 @@
         <v>1000</v>
       </c>
       <c r="N46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2692,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>200</v>
@@ -2703,16 +2807,19 @@
       <c r="S47" s="3">
         <v>200</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="T47" s="3">
+        <v>200</v>
+      </c>
+      <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
@@ -2724,13 +2831,13 @@
         <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2804,22 +2914,25 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="E54" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="F54" s="3">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="G54" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="H54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1000</v>
       </c>
       <c r="K54" s="3">
         <v>1000</v>
       </c>
       <c r="L54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>5500</v>
       </c>
       <c r="S54" s="3">
         <v>5500</v>
       </c>
       <c r="T54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="U54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3157,7 +3287,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -3172,23 +3302,23 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
-        <v>200</v>
-      </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
@@ -3196,10 +3326,13 @@
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3213,79 +3346,82 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
-        <v>200</v>
-      </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3">
-        <v>100</v>
-      </c>
       <c r="T58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
       <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
-        <v>100</v>
-      </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
@@ -3296,13 +3432,13 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
@@ -3310,19 +3446,22 @@
       <c r="T59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>500</v>
       </c>
       <c r="G60" s="3">
         <v>500</v>
@@ -3331,48 +3470,51 @@
         <v>600</v>
       </c>
       <c r="I60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J60" s="3">
+        <v>600</v>
+      </c>
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>400</v>
@@ -3384,14 +3526,14 @@
         <v>400</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I61" s="3">
+        <v>200</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3460,8 +3605,8 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>800</v>
       </c>
       <c r="F66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G66" s="3">
         <v>900</v>
       </c>
       <c r="H66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>900</v>
+      </c>
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
-        <v>800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>800</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-19300</v>
+        <v>-19700</v>
       </c>
       <c r="E72" s="3">
-        <v>-19000</v>
+        <v>-20200</v>
       </c>
       <c r="F72" s="3">
-        <v>-19500</v>
+        <v>-19900</v>
       </c>
       <c r="G72" s="3">
-        <v>-19700</v>
+        <v>-20400</v>
       </c>
       <c r="H72" s="3">
-        <v>-20000</v>
+        <v>-20600</v>
       </c>
       <c r="I72" s="3">
-        <v>-19800</v>
+        <v>-20900</v>
       </c>
       <c r="J72" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-20100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-19100</v>
       </c>
       <c r="L72" s="3">
         <v>-19100</v>
       </c>
       <c r="M72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="N72" s="3">
         <v>-18100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-13800</v>
       </c>
       <c r="R72" s="3">
         <v>-13800</v>
       </c>
       <c r="S72" s="3">
-        <v>-14300</v>
+        <v>-13800</v>
       </c>
       <c r="T72" s="3">
         <v>-14300</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-14300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1400</v>
       </c>
-      <c r="F76" s="3">
-        <v>900</v>
-      </c>
       <c r="G76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H76" s="3">
         <v>600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>600</v>
       </c>
-      <c r="J76" s="3">
-        <v>200</v>
-      </c>
       <c r="K76" s="3">
+        <v>200</v>
+      </c>
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4800</v>
-      </c>
-      <c r="S76" s="3">
-        <v>5000</v>
       </c>
       <c r="T76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,114 +4472,120 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
-        <v>200</v>
-      </c>
       <c r="G81" s="3">
+        <v>200</v>
+      </c>
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>400</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>300</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -4399,10 +4593,13 @@
         <v>0</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4444,10 +4642,10 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4462,14 +4660,14 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3">
-        <v>200</v>
-      </c>
       <c r="R83" s="3">
         <v>200</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>300</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>300</v>
       </c>
       <c r="F89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G89" s="3">
+        <v>200</v>
+      </c>
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
-        <v>200</v>
-      </c>
       <c r="L89" s="3">
+        <v>200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
-        <v>200</v>
-      </c>
       <c r="T89" s="3">
+        <v>200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4851,8 +5071,8 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4866,8 +5086,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -4875,26 +5095,29 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>-300</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5044,25 +5273,28 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>1400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5322,49 +5567,52 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
-        <v>200</v>
-      </c>
       <c r="O100" s="3">
         <v>200</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
-        <v>200</v>
-      </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>300</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
         <v>300</v>
       </c>
       <c r="F102" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G102" s="3">
+        <v>200</v>
+      </c>
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>200</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
-        <v>200</v>
-      </c>
       <c r="S102" s="3">
+        <v>200</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>LMDCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>500</v>
+      </c>
+      <c r="N8" s="3">
+        <v>200</v>
+      </c>
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>600</v>
+      </c>
+      <c r="R8" s="3">
+        <v>300</v>
+      </c>
+      <c r="S8" s="3">
+        <v>800</v>
+      </c>
+      <c r="T8" s="3">
+        <v>400</v>
+      </c>
+      <c r="U8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
-        <v>200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>800</v>
-      </c>
-      <c r="S8" s="3">
-        <v>400</v>
-      </c>
-      <c r="T8" s="3">
-        <v>500</v>
-      </c>
-      <c r="U8" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,19 +824,19 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -838,96 +845,102 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>700</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>500</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>700</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>500</v>
+      </c>
+      <c r="R10" s="3">
+        <v>300</v>
+      </c>
+      <c r="S10" s="3">
         <v>800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>700</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>700</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>800</v>
-      </c>
-      <c r="S10" s="3">
-        <v>400</v>
       </c>
       <c r="T10" s="3">
         <v>400</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,19 +962,20 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -979,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -988,13 +1002,13 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q12" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>8</v>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,28 +1084,31 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1096,11 +1116,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1108,11 +1128,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1144,16 +1167,16 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1168,14 +1191,14 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
         <v>300</v>
       </c>
-      <c r="R15" s="3">
-        <v>200</v>
-      </c>
       <c r="S15" s="3">
         <v>200</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,25 +1231,26 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>-100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
@@ -1235,96 +1262,102 @@
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
-        <v>200</v>
-      </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4900</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>600</v>
       </c>
       <c r="R17" s="3">
         <v>600</v>
       </c>
       <c r="S17" s="3">
+        <v>600</v>
+      </c>
+      <c r="T17" s="3">
         <v>400</v>
-      </c>
-      <c r="T17" s="3">
-        <v>600</v>
       </c>
       <c r="U17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
-        <v>200</v>
-      </c>
       <c r="H18" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I18" s="3">
+        <v>300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
-        <v>200</v>
-      </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,13 +1379,14 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1391,81 +1425,87 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="E21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>200</v>
-      </c>
       <c r="H21" s="3">
+        <v>200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
+        <v>500</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>500</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="T21" s="3">
+        <v>200</v>
+      </c>
+      <c r="U21" s="3">
+        <v>200</v>
+      </c>
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>400</v>
-      </c>
-      <c r="S21" s="3">
-        <v>200</v>
-      </c>
-      <c r="T21" s="3">
-        <v>200</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1478,12 +1518,12 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1523,81 +1563,87 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>200</v>
-      </c>
       <c r="H23" s="3">
+        <v>200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>400</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1606,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1618,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1630,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,56 +1749,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
-        <v>200</v>
-      </c>
       <c r="H26" s="3">
+        <v>200</v>
+      </c>
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -1757,58 +1809,61 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
-        <v>200</v>
-      </c>
       <c r="H27" s="3">
+        <v>200</v>
+      </c>
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -1816,10 +1871,13 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,13 +2121,16 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2099,70 +2169,73 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
-        <v>200</v>
-      </c>
       <c r="H33" s="3">
+        <v>200</v>
+      </c>
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2170,10 +2243,13 @@
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,56 +2307,59 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
-        <v>200</v>
-      </c>
       <c r="H35" s="3">
+        <v>200</v>
+      </c>
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -2288,74 +2367,80 @@
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E41" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
-        <v>600</v>
-      </c>
       <c r="H41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
-        <v>200</v>
-      </c>
       <c r="F43" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>800</v>
       </c>
       <c r="H43" s="3">
+        <v>800</v>
+      </c>
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
-      </c>
-      <c r="O43" s="3">
-        <v>700</v>
       </c>
       <c r="P43" s="3">
         <v>700</v>
       </c>
       <c r="Q43" s="3">
+        <v>700</v>
+      </c>
+      <c r="R43" s="3">
         <v>1600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2678,54 +2777,57 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="E46" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="F46" s="3">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="G46" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="H46" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="I46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1000</v>
       </c>
       <c r="M46" s="3">
         <v>1000</v>
@@ -2734,28 +2836,31 @@
         <v>1000</v>
       </c>
       <c r="O46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2799,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>200</v>
@@ -2810,11 +2915,14 @@
       <c r="T47" s="3">
         <v>200</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="U47" s="3">
+        <v>200</v>
+      </c>
+      <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2822,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
@@ -2831,16 +2939,16 @@
         <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2917,22 +3028,25 @@
         <v>0</v>
       </c>
       <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
         <v>3000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="E54" s="3">
         <v>1900</v>
       </c>
       <c r="F54" s="3">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="G54" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="H54" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="I54" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="J54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1000</v>
       </c>
       <c r="L54" s="3">
         <v>1000</v>
       </c>
       <c r="M54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5200</v>
-      </c>
-      <c r="S54" s="3">
-        <v>5500</v>
       </c>
       <c r="T54" s="3">
         <v>5500</v>
       </c>
       <c r="U54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="V54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3290,7 +3421,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -3305,23 +3436,23 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
-        <v>200</v>
-      </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
@@ -3329,10 +3460,13 @@
         <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3349,49 +3483,52 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
-        <v>200</v>
-      </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
-        <v>100</v>
-      </c>
       <c r="U58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3405,13 +3542,13 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>500</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
@@ -3420,11 +3557,11 @@
         <v>400</v>
       </c>
       <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
@@ -3435,13 +3572,13 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3458,58 +3598,61 @@
         <v>400</v>
       </c>
       <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
-        <v>600</v>
-      </c>
       <c r="I60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
       </c>
       <c r="K60" s="3">
+        <v>600</v>
+      </c>
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3517,7 +3660,7 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>400</v>
@@ -3529,14 +3672,14 @@
         <v>400</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J61" s="3">
+        <v>200</v>
+      </c>
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3608,8 +3754,8 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>700</v>
+      </c>
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
-        <v>800</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1000</v>
       </c>
       <c r="I66" s="3">
         <v>900</v>
       </c>
       <c r="J66" s="3">
+        <v>800</v>
+      </c>
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="J72" s="3">
         <v>-19700</v>
       </c>
-      <c r="E72" s="3">
-        <v>-20200</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-20400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-20600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-19100</v>
       </c>
       <c r="M72" s="3">
         <v>-19100</v>
       </c>
       <c r="N72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="O72" s="3">
         <v>-18100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14200</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-13800</v>
       </c>
       <c r="S72" s="3">
         <v>-13800</v>
       </c>
       <c r="T72" s="3">
-        <v>-14300</v>
+        <v>-13800</v>
       </c>
       <c r="U72" s="3">
         <v>-14300</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-14300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1500</v>
       </c>
-      <c r="E76" s="3">
-        <v>1100</v>
-      </c>
       <c r="F76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G76" s="3">
         <v>1400</v>
       </c>
-      <c r="G76" s="3">
-        <v>1000</v>
-      </c>
       <c r="H76" s="3">
+        <v>900</v>
+      </c>
+      <c r="I76" s="3">
         <v>600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>600</v>
       </c>
-      <c r="K76" s="3">
-        <v>200</v>
-      </c>
       <c r="L76" s="3">
+        <v>200</v>
+      </c>
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>400</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
         <v>400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4800</v>
-      </c>
-      <c r="T76" s="3">
-        <v>5000</v>
       </c>
       <c r="U76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,120 +4664,126 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
-        <v>200</v>
-      </c>
       <c r="H81" s="3">
+        <v>200</v>
+      </c>
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -4596,10 +4791,13 @@
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4645,10 +4844,10 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4663,14 +4862,14 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
         <v>300</v>
       </c>
-      <c r="R83" s="3">
-        <v>200</v>
-      </c>
       <c r="S83" s="3">
         <v>200</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>300</v>
       </c>
       <c r="F89" s="3">
         <v>300</v>
       </c>
       <c r="G89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H89" s="3">
+        <v>200</v>
+      </c>
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>200</v>
-      </c>
       <c r="M89" s="3">
+        <v>200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
-        <v>200</v>
-      </c>
       <c r="U89" s="3">
+        <v>200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,13 +5277,14 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
@@ -5074,8 +5295,8 @@
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5089,8 +5310,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -5098,26 +5319,29 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3">
-        <v>-300</v>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5276,25 +5506,28 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>1400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5570,49 +5816,52 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
-        <v>200</v>
-      </c>
       <c r="P100" s="3">
         <v>200</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
-        <v>200</v>
-      </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>400</v>
-      </c>
       <c r="G102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H102" s="3">
+        <v>200</v>
+      </c>
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>200</v>
-      </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
-        <v>200</v>
-      </c>
       <c r="T102" s="3">
+        <v>200</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>LMDCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,109 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>800</v>
@@ -774,49 +782,55 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -827,40 +841,40 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -875,18 +889,24 @@
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -898,49 +918,55 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,25 +989,27 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -996,25 +1024,25 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>2000</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>8</v>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,58 +1121,64 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>1600</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>1600</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1170,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1182,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1194,16 +1240,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+      <c r="T15" s="3">
         <v>300</v>
-      </c>
-      <c r="S15" s="3">
-        <v>200</v>
-      </c>
-      <c r="T15" s="3">
-        <v>200</v>
       </c>
       <c r="U15" s="3">
         <v>200</v>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>200</v>
+      </c>
+      <c r="X15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1284,10 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1241,7 +1295,7 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1250,13 +1304,13 @@
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>-100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
@@ -1265,99 +1319,111 @@
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
-      </c>
-      <c r="S17" s="3">
-        <v>600</v>
-      </c>
-      <c r="T17" s="3">
-        <v>400</v>
       </c>
       <c r="U17" s="3">
         <v>600</v>
       </c>
       <c r="V17" s="3">
+        <v>400</v>
+      </c>
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>600</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>600</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>500</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-4300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,19 +1446,21 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1428,84 +1496,96 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>100</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>100</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-200</v>
       </c>
       <c r="E21" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F21" s="3">
         <v>-300</v>
       </c>
       <c r="G21" s="3">
+        <v>500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>500</v>
       </c>
       <c r="L21" s="3">
         <v>-200</v>
       </c>
       <c r="M21" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-4200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1521,8 +1601,8 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1566,16 +1646,22 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F23" s="3">
         <v>-300</v>
@@ -1584,52 +1670,58 @@
         <v>600</v>
       </c>
       <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>600</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>400</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-4300</v>
       </c>
       <c r="R23" s="3">
         <v>-400</v>
       </c>
       <c r="S23" s="3">
-        <v>100</v>
+        <v>-4300</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,49 +1741,55 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,16 +1850,22 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F26" s="3">
         <v>-300</v>
@@ -1770,60 +1874,66 @@
         <v>500</v>
       </c>
       <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>500</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-4300</v>
       </c>
       <c r="R26" s="3">
         <v>-400</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F27" s="3">
         <v>-300</v>
@@ -1832,52 +1942,58 @@
         <v>500</v>
       </c>
       <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>500</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-4300</v>
       </c>
       <c r="R27" s="3">
         <v>-400</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,19 +2258,25 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2172,30 +2312,36 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F33" s="3">
         <v>-300</v>
@@ -2204,52 +2350,58 @@
         <v>500</v>
       </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>500</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-4300</v>
       </c>
       <c r="R33" s="3">
         <v>-400</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,16 +2462,22 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F35" s="3">
         <v>-300</v>
@@ -2328,119 +2486,131 @@
         <v>500</v>
       </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>500</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-4300</v>
       </c>
       <c r="R35" s="3">
         <v>-400</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,37 +2659,39 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>900</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
-      </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
@@ -2535,22 +2709,28 @@
         <v>200</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,70 +2791,82 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>800</v>
       </c>
       <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
         <v>800</v>
-      </c>
-      <c r="I43" s="3">
-        <v>700</v>
       </c>
       <c r="J43" s="3">
         <v>800</v>
       </c>
       <c r="K43" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L43" s="3">
         <v>800</v>
       </c>
       <c r="M43" s="3">
+        <v>900</v>
+      </c>
+      <c r="N43" s="3">
+        <v>800</v>
+      </c>
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1700</v>
-      </c>
-      <c r="T43" s="3">
-        <v>2000</v>
-      </c>
-      <c r="U43" s="3">
-        <v>2300</v>
       </c>
       <c r="V43" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="X43" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2780,48 +2978,54 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1700</v>
       </c>
       <c r="H46" s="3">
         <v>1400</v>
       </c>
       <c r="I46" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="J46" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="K46" s="3">
         <v>1100</v>
@@ -2830,37 +3034,43 @@
         <v>900</v>
       </c>
       <c r="M46" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="N46" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="O46" s="3">
         <v>1000</v>
       </c>
       <c r="P46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2907,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T47" s="3">
         <v>200</v>
@@ -2918,11 +3128,17 @@
       <c r="U47" s="3">
         <v>200</v>
       </c>
-      <c r="V47" s="3" t="s">
+      <c r="V47" s="3">
+        <v>200</v>
+      </c>
+      <c r="W47" s="3">
+        <v>200</v>
+      </c>
+      <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2933,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
@@ -2945,17 +3161,17 @@
         <v>400</v>
       </c>
       <c r="J48" s="3">
+        <v>400</v>
+      </c>
+      <c r="K48" s="3">
+        <v>400</v>
+      </c>
+      <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
@@ -2983,8 +3199,14 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3031,22 +3253,28 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
         <v>3000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>3100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1900</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2100</v>
       </c>
       <c r="H54" s="3">
         <v>1800</v>
       </c>
       <c r="I54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1100</v>
       </c>
       <c r="O54" s="3">
         <v>1000</v>
       </c>
       <c r="P54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R54" s="3">
         <v>900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>5500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,13 +3663,15 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3424,10 +3686,10 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -3439,13 +3701,13 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
         <v>500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
@@ -3454,19 +3716,25 @@
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W57" s="3">
+        <v>200</v>
+      </c>
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3486,49 +3754,55 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="J58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
-        <v>100</v>
-      </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3539,35 +3813,35 @@
         <v>300</v>
       </c>
       <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
       <c r="K59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
       </c>
       <c r="M59" s="3">
+        <v>400</v>
+      </c>
+      <c r="N59" s="3">
+        <v>400</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
-        <v>100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
-      </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
@@ -3575,7 +3849,7 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
@@ -3584,75 +3858,87 @@
         <v>200</v>
       </c>
       <c r="U59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>200</v>
+      </c>
+      <c r="X59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>400</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
       </c>
       <c r="H60" s="3">
+        <v>300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>400</v>
+      </c>
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>800</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
       </c>
       <c r="N60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O60" s="3">
         <v>600</v>
       </c>
       <c r="P60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>600</v>
+      </c>
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3663,10 +3949,10 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>400</v>
@@ -3675,17 +3961,17 @@
         <v>400</v>
       </c>
       <c r="J61" s="3">
+        <v>400</v>
+      </c>
+      <c r="K61" s="3">
+        <v>400</v>
+      </c>
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3713,31 +3999,37 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -3757,11 +4049,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,31 +4271,37 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
       </c>
       <c r="F66" s="3">
+        <v>500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>400</v>
+      </c>
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>800</v>
       </c>
       <c r="K66" s="3">
         <v>900</v>
@@ -3994,37 +4310,43 @@
         <v>800</v>
       </c>
       <c r="M66" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="N66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
       </c>
       <c r="P66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>600</v>
+      </c>
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,16 +4637,22 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18900</v>
+        <v>-18700</v>
       </c>
       <c r="E72" s="3">
-        <v>-18500</v>
+        <v>-18400</v>
       </c>
       <c r="F72" s="3">
         <v>-19000</v>
@@ -4313,52 +4661,58 @@
         <v>-18700</v>
       </c>
       <c r="H72" s="3">
-        <v>-19200</v>
+        <v>-19100</v>
       </c>
       <c r="I72" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-19400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-19700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-20700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-20100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-19100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-18100</v>
       </c>
       <c r="P72" s="3">
         <v>-19100</v>
       </c>
       <c r="Q72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="S72" s="3">
         <v>-18500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-14200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-13800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-13800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-14300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G76" s="3">
         <v>1500</v>
       </c>
-      <c r="F76" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I76" s="3">
         <v>1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>300</v>
       </c>
       <c r="K76" s="3">
         <v>600</v>
       </c>
       <c r="L76" s="3">
+        <v>300</v>
+      </c>
+      <c r="M76" s="3">
+        <v>600</v>
+      </c>
+      <c r="N76" s="3">
         <v>200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>300</v>
       </c>
       <c r="O76" s="3">
         <v>400</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q76" s="3">
         <v>400</v>
       </c>
       <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <v>400</v>
+      </c>
+      <c r="T76" s="3">
         <v>4500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>5000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,83 +5045,95 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F81" s="3">
         <v>-300</v>
@@ -4752,52 +5142,58 @@
         <v>500</v>
       </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>500</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-4300</v>
       </c>
       <c r="R81" s="3">
         <v>-400</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4847,13 +5245,13 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4865,16 +5263,16 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
         <v>300</v>
-      </c>
-      <c r="S83" s="3">
-        <v>200</v>
-      </c>
-      <c r="T83" s="3">
-        <v>200</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>200</v>
+      </c>
+      <c r="X83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>200</v>
       </c>
       <c r="I89" s="3">
         <v>300</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="K89" s="3">
         <v>300</v>
       </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,19 +5718,21 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -5298,11 +5740,11 @@
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5313,35 +5755,41 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
+      <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3" t="s">
+      <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5509,25 +5969,31 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>1400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-700</v>
       </c>
       <c r="U94" s="3">
         <v>-500</v>
       </c>
       <c r="V94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6284,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5819,49 +6311,55 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,34 +6420,40 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>300</v>
-      </c>
-      <c r="H102" s="3">
-        <v>200</v>
       </c>
       <c r="I102" s="3">
         <v>300</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
@@ -5964,24 +6468,30 @@
         <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-200</v>
-      </c>
       <c r="T102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>-200</v>
       </c>
       <c r="V102" s="3">
+        <v>200</v>
+      </c>
+      <c r="W102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18700</v>
+        <v>-18600</v>
       </c>
       <c r="E72" s="3">
         <v>-18400</v>
@@ -4664,7 +4664,7 @@
         <v>-19100</v>
       </c>
       <c r="I72" s="3">
-        <v>-18900</v>
+        <v>-18800</v>
       </c>
       <c r="J72" s="3">
         <v>-19300</v>

--- a/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,178 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -847,19 +853,19 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -868,105 +874,111 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>600</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>700</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>500</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>800</v>
-      </c>
-      <c r="V10" s="3">
-        <v>400</v>
       </c>
       <c r="W10" s="3">
         <v>400</v>
       </c>
       <c r="X10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,28 +1003,29 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1030,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -1039,13 +1052,13 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2000</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>8</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1143,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1141,23 +1160,23 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1165,11 +1184,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1177,11 +1196,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>1600</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1222,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1246,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T15" s="3">
+        <v>100</v>
+      </c>
+      <c r="U15" s="3">
         <v>300</v>
-      </c>
-      <c r="U15" s="3">
-        <v>200</v>
       </c>
       <c r="V15" s="3">
         <v>200</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1301,19 +1327,19 @@
         <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
@@ -1325,105 +1351,111 @@
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4900</v>
-      </c>
-      <c r="T17" s="3">
-        <v>600</v>
       </c>
       <c r="U17" s="3">
         <v>600</v>
       </c>
       <c r="V17" s="3">
+        <v>600</v>
+      </c>
+      <c r="W17" s="3">
         <v>400</v>
-      </c>
-      <c r="W17" s="3">
-        <v>600</v>
       </c>
       <c r="X17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
       <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,14 +1490,14 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1502,90 +1535,96 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>-100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
-        <v>-300</v>
-      </c>
       <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>400</v>
-      </c>
-      <c r="V21" s="3">
-        <v>200</v>
       </c>
       <c r="W21" s="3">
         <v>200</v>
       </c>
       <c r="X21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,99 +1691,105 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>600</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1753,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1765,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1777,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,65 +1904,68 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>600</v>
-      </c>
       <c r="F26" s="3">
+        <v>500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
@@ -1922,67 +1973,70 @@
         <v>0</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>600</v>
-      </c>
       <c r="F27" s="3">
+        <v>500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
@@ -1990,10 +2044,13 @@
         <v>0</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2318,79 +2387,82 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>600</v>
-      </c>
       <c r="F33" s="3">
+        <v>500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
@@ -2398,10 +2470,13 @@
         <v>0</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,65 +2543,68 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>600</v>
-      </c>
       <c r="F35" s="3">
+        <v>500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
@@ -2534,83 +2612,89 @@
         <v>0</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
-        <v>1000</v>
-      </c>
       <c r="H41" s="3">
+        <v>900</v>
+      </c>
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
-        <v>100</v>
-      </c>
       <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,67 +2898,70 @@
         <v>800</v>
       </c>
       <c r="E43" s="3">
+        <v>800</v>
+      </c>
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
-        <v>800</v>
-      </c>
       <c r="H43" s="3">
+        <v>700</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>800</v>
       </c>
       <c r="J43" s="3">
         <v>800</v>
       </c>
       <c r="K43" s="3">
+        <v>800</v>
+      </c>
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
-      </c>
-      <c r="R43" s="3">
-        <v>700</v>
       </c>
       <c r="S43" s="3">
         <v>700</v>
       </c>
       <c r="T43" s="3">
+        <v>700</v>
+      </c>
+      <c r="U43" s="3">
         <v>1600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2984,63 +3082,66 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
-        <v>100</v>
-      </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
-        <v>1800</v>
-      </c>
       <c r="J46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1000</v>
       </c>
       <c r="P46" s="3">
         <v>1000</v>
@@ -3049,28 +3150,31 @@
         <v>1000</v>
       </c>
       <c r="R46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3123,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U47" s="3">
         <v>200</v>
@@ -3134,11 +3238,14 @@
       <c r="W47" s="3">
         <v>200</v>
       </c>
-      <c r="X47" s="3" t="s">
+      <c r="X47" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3155,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
@@ -3167,13 +3274,13 @@
         <v>400</v>
       </c>
       <c r="L48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3259,22 +3369,25 @@
         <v>0</v>
       </c>
       <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
         <v>3000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1900</v>
       </c>
       <c r="H54" s="3">
         <v>1800</v>
       </c>
       <c r="I54" s="3">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="J54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1000</v>
       </c>
       <c r="O54" s="3">
         <v>1000</v>
       </c>
       <c r="P54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5200</v>
-      </c>
-      <c r="V54" s="3">
-        <v>5500</v>
       </c>
       <c r="W54" s="3">
         <v>5500</v>
       </c>
       <c r="X54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Y54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3692,7 +3822,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -3707,22 +3837,22 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
-      </c>
-      <c r="U57" s="3">
-        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
@@ -3731,10 +3861,13 @@
         <v>200</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3760,54 +3893,57 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
       <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="W58" s="3">
-        <v>100</v>
-      </c>
       <c r="X58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
@@ -3819,19 +3955,19 @@
         <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
@@ -3840,11 +3976,11 @@
         <v>400</v>
       </c>
       <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
-        <v>100</v>
-      </c>
       <c r="Q59" s="3">
         <v>100</v>
       </c>
@@ -3855,13 +3991,13 @@
         <v>100</v>
       </c>
       <c r="T59" s="3">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3">
-        <v>100</v>
-      </c>
       <c r="V59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W59" s="3">
         <v>200</v>
@@ -3869,8 +4005,11 @@
       <c r="X59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3878,7 +4017,7 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>400</v>
@@ -3887,58 +4026,61 @@
         <v>400</v>
       </c>
       <c r="H60" s="3">
+        <v>400</v>
+      </c>
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>500</v>
       </c>
       <c r="K60" s="3">
         <v>500</v>
       </c>
       <c r="L60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
       </c>
       <c r="N60" s="3">
+        <v>600</v>
+      </c>
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3955,7 +4097,7 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>400</v>
@@ -3967,14 +4109,14 @@
         <v>400</v>
       </c>
       <c r="L61" s="3">
+        <v>400</v>
+      </c>
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4031,8 +4176,8 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
@@ -4055,8 +4200,8 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
       </c>
       <c r="F66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
       </c>
       <c r="H66" s="3">
+        <v>400</v>
+      </c>
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>900</v>
       </c>
       <c r="K66" s="3">
         <v>900</v>
       </c>
       <c r="L66" s="3">
+        <v>900</v>
+      </c>
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-18600</v>
+        <v>-14500</v>
       </c>
       <c r="E72" s="3">
-        <v>-18400</v>
+        <v>-15100</v>
       </c>
       <c r="F72" s="3">
-        <v>-19000</v>
+        <v>-14900</v>
       </c>
       <c r="G72" s="3">
-        <v>-18700</v>
+        <v>-15400</v>
       </c>
       <c r="H72" s="3">
-        <v>-19100</v>
+        <v>-15100</v>
       </c>
       <c r="I72" s="3">
-        <v>-18800</v>
+        <v>-15600</v>
       </c>
       <c r="J72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-19300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-20700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-20100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-19100</v>
       </c>
       <c r="P72" s="3">
         <v>-19100</v>
       </c>
       <c r="Q72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="R72" s="3">
         <v>-18100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-19100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-18500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-14200</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-13800</v>
       </c>
       <c r="V72" s="3">
         <v>-13800</v>
       </c>
       <c r="W72" s="3">
-        <v>-14300</v>
+        <v>-13800</v>
       </c>
       <c r="X72" s="3">
         <v>-14300</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-14300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>400</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
       <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
         <v>400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4800</v>
-      </c>
-      <c r="W76" s="3">
-        <v>5000</v>
       </c>
       <c r="X76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,138 +5239,144 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>600</v>
-      </c>
       <c r="F81" s="3">
+        <v>500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
@@ -5190,10 +5384,13 @@
         <v>0</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5251,10 +5449,10 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5269,13 +5467,13 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
         <v>300</v>
-      </c>
-      <c r="U83" s="3">
-        <v>200</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>300</v>
       </c>
       <c r="I89" s="3">
         <v>300</v>
       </c>
       <c r="J89" s="3">
+        <v>300</v>
+      </c>
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
       <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
         <v>700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,8 +5954,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
@@ -5746,8 +5966,8 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5761,8 +5981,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
@@ -5770,26 +5990,29 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3">
-        <v>-300</v>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5975,25 +6204,28 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>1400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6317,49 +6562,52 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-300</v>
-      </c>
-      <c r="R100" s="3">
-        <v>200</v>
       </c>
       <c r="S100" s="3">
         <v>200</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>300</v>
       </c>
       <c r="I102" s="3">
         <v>300</v>
       </c>
       <c r="J102" s="3">
+        <v>300</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>LMDCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,185 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -856,19 +863,19 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -877,108 +884,114 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>700</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>800</v>
-      </c>
-      <c r="W10" s="3">
-        <v>400</v>
       </c>
       <c r="X10" s="3">
         <v>400</v>
       </c>
       <c r="Y10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1013,22 +1027,22 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -1046,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
@@ -1055,13 +1069,13 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2000</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>8</v>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,13 +1163,16 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1163,23 +1183,23 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1187,11 +1207,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1199,11 +1219,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>1600</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1247,16 +1270,16 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1271,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="T15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U15" s="3">
+        <v>100</v>
+      </c>
+      <c r="V15" s="3">
         <v>300</v>
-      </c>
-      <c r="V15" s="3">
-        <v>200</v>
       </c>
       <c r="W15" s="3">
         <v>200</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1338,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1330,19 +1357,19 @@
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
@@ -1354,108 +1381,114 @@
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4900</v>
-      </c>
-      <c r="U17" s="3">
-        <v>600</v>
       </c>
       <c r="V17" s="3">
         <v>600</v>
       </c>
       <c r="W17" s="3">
+        <v>600</v>
+      </c>
+      <c r="X17" s="3">
         <v>400</v>
-      </c>
-      <c r="X17" s="3">
-        <v>600</v>
       </c>
       <c r="Y17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
       <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>200</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,26 +1514,27 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1538,93 +1572,99 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>-100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>400</v>
-      </c>
-      <c r="W21" s="3">
-        <v>200</v>
       </c>
       <c r="X21" s="3">
         <v>200</v>
       </c>
       <c r="Y21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,105 +1734,111 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
-        <v>100</v>
-      </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1801,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1813,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1825,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,68 +1956,71 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
@@ -1976,70 +2028,73 @@
         <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
@@ -2047,10 +2102,13 @@
         <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,25 +2400,28 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2390,82 +2460,85 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
@@ -2473,10 +2546,13 @@
         <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,68 +2622,71 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
@@ -2615,86 +2694,92 @@
         <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
-        <v>100</v>
-      </c>
       <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,79 +2979,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
+        <v>900</v>
+      </c>
+      <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
-        <v>900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>700</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>800</v>
       </c>
       <c r="K43" s="3">
         <v>800</v>
       </c>
       <c r="L43" s="3">
+        <v>800</v>
+      </c>
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>800</v>
-      </c>
-      <c r="S43" s="3">
-        <v>700</v>
       </c>
       <c r="T43" s="3">
         <v>700</v>
       </c>
       <c r="U43" s="3">
+        <v>700</v>
+      </c>
+      <c r="V43" s="3">
         <v>1600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3085,66 +3184,69 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
-        <v>100</v>
-      </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
       <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1000</v>
       </c>
       <c r="Q46" s="3">
         <v>1000</v>
@@ -3153,28 +3255,31 @@
         <v>1000</v>
       </c>
       <c r="S46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3230,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V47" s="3">
         <v>200</v>
@@ -3241,11 +3346,14 @@
       <c r="X47" s="3">
         <v>200</v>
       </c>
-      <c r="Y47" s="3" t="s">
+      <c r="Y47" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3265,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -3277,13 +3385,13 @@
         <v>400</v>
       </c>
       <c r="M48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>300</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3372,22 +3483,25 @@
         <v>0</v>
       </c>
       <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
         <v>3000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J54" s="3">
         <v>1800</v>
       </c>
-      <c r="I54" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1000</v>
       </c>
       <c r="P54" s="3">
         <v>1000</v>
       </c>
       <c r="Q54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5200</v>
-      </c>
-      <c r="W54" s="3">
-        <v>5500</v>
       </c>
       <c r="X54" s="3">
         <v>5500</v>
       </c>
       <c r="Y54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Z54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,19 +3925,20 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -3825,7 +3956,7 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -3840,22 +3971,22 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
-      </c>
-      <c r="V57" s="3">
-        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
@@ -3864,15 +3995,18 @@
         <v>200</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3896,57 +4030,60 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
       <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>300</v>
       </c>
-      <c r="X58" s="3">
-        <v>100</v>
-      </c>
       <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
@@ -3958,19 +4095,19 @@
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
@@ -3979,11 +4116,11 @@
         <v>400</v>
       </c>
       <c r="P59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
-        <v>100</v>
-      </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
@@ -3994,13 +4131,13 @@
         <v>100</v>
       </c>
       <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="V59" s="3">
-        <v>100</v>
-      </c>
       <c r="W59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X59" s="3">
         <v>200</v>
@@ -4008,19 +4145,22 @@
       <c r="Y59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
@@ -4029,58 +4169,61 @@
         <v>400</v>
       </c>
       <c r="I60" s="3">
+        <v>400</v>
+      </c>
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>500</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
       </c>
       <c r="M60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N60" s="3">
         <v>600</v>
       </c>
       <c r="O60" s="3">
+        <v>600</v>
+      </c>
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4100,7 +4243,7 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>400</v>
@@ -4112,14 +4255,14 @@
         <v>400</v>
       </c>
       <c r="M61" s="3">
+        <v>400</v>
+      </c>
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4179,8 +4325,8 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
@@ -4203,8 +4349,8 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,16 +4589,19 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>400</v>
       </c>
       <c r="F66" s="3">
         <v>400</v>
@@ -4455,58 +4613,61 @@
         <v>400</v>
       </c>
       <c r="I66" s="3">
+        <v>400</v>
+      </c>
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>900</v>
       </c>
       <c r="L66" s="3">
         <v>900</v>
       </c>
       <c r="M66" s="3">
+        <v>900</v>
+      </c>
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-14500</v>
+        <v>-14800</v>
       </c>
       <c r="E72" s="3">
-        <v>-15100</v>
+        <v>-14600</v>
       </c>
       <c r="F72" s="3">
-        <v>-14900</v>
+        <v>-15200</v>
       </c>
       <c r="G72" s="3">
-        <v>-15400</v>
+        <v>-15000</v>
       </c>
       <c r="H72" s="3">
-        <v>-15100</v>
+        <v>-15600</v>
       </c>
       <c r="I72" s="3">
-        <v>-15600</v>
+        <v>-15200</v>
       </c>
       <c r="J72" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-15300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-20700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-20100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-19100</v>
       </c>
       <c r="Q72" s="3">
         <v>-19100</v>
       </c>
       <c r="R72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="S72" s="3">
         <v>-18100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-19100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-18500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-14200</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-13800</v>
       </c>
       <c r="W72" s="3">
         <v>-13800</v>
       </c>
       <c r="X72" s="3">
-        <v>-14300</v>
+        <v>-13800</v>
       </c>
       <c r="Y72" s="3">
         <v>-14300</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-14300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="E76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F76" s="3">
         <v>1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>400</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
       <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
         <v>400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4800</v>
-      </c>
-      <c r="X76" s="3">
-        <v>5000</v>
       </c>
       <c r="Y76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,144 +5431,150 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
@@ -5387,10 +5582,13 @@
         <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5452,10 +5651,10 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5470,13 +5669,13 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
         <v>300</v>
-      </c>
-      <c r="V83" s="3">
-        <v>200</v>
       </c>
       <c r="W83" s="3">
         <v>200</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>300</v>
       </c>
       <c r="J89" s="3">
         <v>300</v>
       </c>
       <c r="K89" s="3">
+        <v>300</v>
+      </c>
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1400</v>
       </c>
-      <c r="U89" s="3">
-        <v>100</v>
-      </c>
       <c r="V89" s="3">
+        <v>100</v>
+      </c>
+      <c r="W89" s="3">
         <v>700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,13 +6160,14 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5957,8 +6178,8 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
@@ -5969,8 +6190,8 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5984,8 +6205,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
@@ -5993,26 +6214,29 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X91" s="3">
-        <v>-300</v>
+      <c r="X91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6207,25 +6437,28 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>1400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6565,49 +6811,52 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-300</v>
-      </c>
-      <c r="S100" s="3">
-        <v>200</v>
       </c>
       <c r="T100" s="3">
         <v>200</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
       <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>300</v>
       </c>
       <c r="J102" s="3">
         <v>300</v>
       </c>
       <c r="K102" s="3">
+        <v>300</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>LMDCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,203 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -866,19 +873,19 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -887,111 +894,117 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E10" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>700</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>800</v>
-      </c>
-      <c r="X10" s="3">
-        <v>400</v>
       </c>
       <c r="Y10" s="3">
         <v>400</v>
       </c>
       <c r="Z10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,34 +1031,35 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -1063,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
@@ -1072,13 +1086,13 @@
         <v>100</v>
       </c>
       <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
         <v>200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2000</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>8</v>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1186,23 +1206,23 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1210,11 +1230,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1222,11 +1242,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>1600</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1297,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V15" s="3">
+        <v>100</v>
+      </c>
+      <c r="W15" s="3">
         <v>300</v>
-      </c>
-      <c r="W15" s="3">
-        <v>200</v>
       </c>
       <c r="X15" s="3">
         <v>200</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1360,19 +1387,19 @@
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
@@ -1384,111 +1411,117 @@
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4900</v>
-      </c>
-      <c r="V17" s="3">
-        <v>600</v>
       </c>
       <c r="W17" s="3">
         <v>600</v>
       </c>
       <c r="X17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y17" s="3">
         <v>400</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>600</v>
       </c>
       <c r="Z17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>600</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>600</v>
+      </c>
+      <c r="M18" s="3">
+        <v>200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>300</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>600</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>500</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>600</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="X18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
-        <v>300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>500</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W18" s="3">
-        <v>200</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,29 +1548,30 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1575,96 +1609,102 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>-100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
-        <v>700</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="J21" s="3">
+        <v>500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="L21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
+        <v>200</v>
+      </c>
+      <c r="N21" s="3">
+        <v>300</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
-        <v>500</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>400</v>
-      </c>
-      <c r="X21" s="3">
-        <v>200</v>
       </c>
       <c r="Y21" s="3">
         <v>200</v>
       </c>
       <c r="Z21" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,111 +1777,117 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
-        <v>700</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="J23" s="3">
+        <v>500</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
+        <v>600</v>
+      </c>
+      <c r="M23" s="3">
+        <v>200</v>
+      </c>
+      <c r="N23" s="3">
+        <v>300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>300</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>400</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
-        <v>100</v>
-      </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1850,10 +1896,10 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1862,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1874,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,71 +2008,74 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
@@ -2031,73 +2083,76 @@
         <v>0</v>
       </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
@@ -2105,10 +2160,13 @@
         <v>0</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,28 +2470,31 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2463,85 +2533,88 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
@@ -2549,10 +2622,13 @@
         <v>0</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,71 +2701,74 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
@@ -2697,89 +2776,95 @@
         <v>0</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
-        <v>1500</v>
-      </c>
       <c r="F41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="Y41" s="3">
-        <v>100</v>
-      </c>
       <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,13 +3072,16 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
         <v>900</v>
@@ -2997,67 +3090,70 @@
         <v>800</v>
       </c>
       <c r="G43" s="3">
+        <v>800</v>
+      </c>
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
-        <v>800</v>
-      </c>
       <c r="J43" s="3">
+        <v>700</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>800</v>
       </c>
       <c r="L43" s="3">
         <v>800</v>
       </c>
       <c r="M43" s="3">
+        <v>800</v>
+      </c>
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>800</v>
-      </c>
-      <c r="T43" s="3">
-        <v>700</v>
       </c>
       <c r="U43" s="3">
         <v>700</v>
       </c>
       <c r="V43" s="3">
+        <v>700</v>
+      </c>
+      <c r="W43" s="3">
         <v>1600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3187,69 +3286,72 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
-        <v>100</v>
-      </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1000</v>
       </c>
       <c r="R46" s="3">
         <v>1000</v>
@@ -3258,28 +3360,31 @@
         <v>1000</v>
       </c>
       <c r="T46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3338,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W47" s="3">
         <v>200</v>
@@ -3349,11 +3454,14 @@
       <c r="Y47" s="3">
         <v>200</v>
       </c>
-      <c r="Z47" s="3" t="s">
+      <c r="Z47" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3376,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
@@ -3388,13 +3496,13 @@
         <v>400</v>
       </c>
       <c r="N48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O48" s="3">
         <v>300</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3486,22 +3597,25 @@
         <v>0</v>
       </c>
       <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
         <v>3000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F54" s="3">
         <v>2300</v>
       </c>
-      <c r="E54" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1800</v>
-      </c>
       <c r="G54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H54" s="3">
         <v>2000</v>
       </c>
-      <c r="H54" s="3">
-        <v>1700</v>
-      </c>
       <c r="I54" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="J54" s="3">
         <v>1800</v>
       </c>
       <c r="K54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L54" s="3">
         <v>2100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1400</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1000</v>
       </c>
       <c r="Q54" s="3">
         <v>1000</v>
       </c>
       <c r="R54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S54" s="3">
         <v>1100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5200</v>
-      </c>
-      <c r="X54" s="3">
-        <v>5500</v>
       </c>
       <c r="Y54" s="3">
         <v>5500</v>
       </c>
       <c r="Z54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="AA54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3935,13 +4066,13 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -3959,7 +4090,7 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -3974,22 +4105,22 @@
         <v>200</v>
       </c>
       <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
-      </c>
-      <c r="W57" s="3">
-        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
@@ -3998,18 +4129,21 @@
         <v>200</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4033,49 +4167,52 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
       <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>200</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
-      <c r="Y58" s="3">
-        <v>100</v>
-      </c>
       <c r="Z58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4083,10 +4220,10 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -4098,19 +4235,19 @@
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
       </c>
       <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
@@ -4119,11 +4256,11 @@
         <v>400</v>
       </c>
       <c r="Q59" s="3">
+        <v>400</v>
+      </c>
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
-        <v>100</v>
-      </c>
       <c r="S59" s="3">
         <v>100</v>
       </c>
@@ -4134,13 +4271,13 @@
         <v>100</v>
       </c>
       <c r="V59" s="3">
+        <v>100</v>
+      </c>
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="W59" s="3">
-        <v>100</v>
-      </c>
       <c r="X59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y59" s="3">
         <v>200</v>
@@ -4148,22 +4285,25 @@
       <c r="Z59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
@@ -4175,55 +4315,58 @@
         <v>300</v>
       </c>
       <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>500</v>
       </c>
       <c r="M60" s="3">
         <v>500</v>
       </c>
       <c r="N60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>600</v>
       </c>
       <c r="P60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4246,7 +4389,7 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>400</v>
@@ -4258,14 +4401,14 @@
         <v>400</v>
       </c>
       <c r="N61" s="3">
+        <v>400</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4328,8 +4474,8 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -4352,8 +4498,8 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4601,10 +4759,10 @@
         <v>400</v>
       </c>
       <c r="E66" s="3">
+        <v>400</v>
+      </c>
+      <c r="F66" s="3">
         <v>300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
@@ -4616,58 +4774,61 @@
         <v>400</v>
       </c>
       <c r="J66" s="3">
+        <v>400</v>
+      </c>
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>900</v>
       </c>
       <c r="M66" s="3">
         <v>900</v>
       </c>
       <c r="N66" s="3">
+        <v>900</v>
+      </c>
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-14800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-14600</v>
       </c>
-      <c r="F72" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-15600</v>
-      </c>
       <c r="I72" s="3">
-        <v>-15200</v>
+        <v>-15100</v>
       </c>
       <c r="J72" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-15700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-20700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-20100</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-19100</v>
       </c>
       <c r="R72" s="3">
         <v>-19100</v>
       </c>
       <c r="S72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="T72" s="3">
         <v>-18100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-19100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-18500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-14200</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-13800</v>
       </c>
       <c r="X72" s="3">
         <v>-13800</v>
       </c>
       <c r="Y72" s="3">
-        <v>-14300</v>
+        <v>-13800</v>
       </c>
       <c r="Z72" s="3">
         <v>-14300</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>-14300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1800</v>
       </c>
-      <c r="E76" s="3">
-        <v>2100</v>
-      </c>
       <c r="F76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G76" s="3">
         <v>1400</v>
       </c>
-      <c r="G76" s="3">
-        <v>1600</v>
-      </c>
       <c r="H76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I76" s="3">
         <v>1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>400</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
       <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
         <v>400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4800</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>5000</v>
       </c>
       <c r="Z76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,150 +5623,156 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
@@ -5585,10 +5780,13 @@
         <v>0</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5654,10 +5853,10 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -5672,13 +5871,13 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
         <v>300</v>
-      </c>
-      <c r="W83" s="3">
-        <v>200</v>
       </c>
       <c r="X83" s="3">
         <v>200</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>400</v>
-      </c>
       <c r="I89" s="3">
+        <v>300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>300</v>
       </c>
       <c r="K89" s="3">
         <v>300</v>
       </c>
       <c r="L89" s="3">
+        <v>300</v>
+      </c>
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1400</v>
       </c>
-      <c r="V89" s="3">
-        <v>100</v>
-      </c>
       <c r="W89" s="3">
+        <v>100</v>
+      </c>
+      <c r="X89" s="3">
         <v>700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,16 +6381,17 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -6181,8 +6402,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -6193,8 +6414,8 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6208,8 +6429,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
@@ -6217,26 +6438,29 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3">
-        <v>-300</v>
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6440,25 +6670,28 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>1400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6814,49 +7060,52 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-300</v>
-      </c>
-      <c r="T100" s="3">
-        <v>200</v>
       </c>
       <c r="U100" s="3">
         <v>200</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>100</v>
-      </c>
       <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
-        <v>400</v>
-      </c>
       <c r="I102" s="3">
+        <v>300</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>300</v>
       </c>
       <c r="K102" s="3">
         <v>300</v>
       </c>
       <c r="L102" s="3">
+        <v>300</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>LMDCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,199 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>800</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>600</v>
+      </c>
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>700</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>500</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="U8" s="3">
+        <v>700</v>
+      </c>
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
+        <v>600</v>
+      </c>
+      <c r="X8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>800</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>800</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>600</v>
-      </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
-      <c r="R8" s="3">
-        <v>500</v>
-      </c>
-      <c r="S8" s="3">
-        <v>200</v>
-      </c>
-      <c r="T8" s="3">
-        <v>700</v>
-      </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
-      <c r="V8" s="3">
-        <v>600</v>
-      </c>
-      <c r="W8" s="3">
-        <v>300</v>
-      </c>
-      <c r="X8" s="3">
-        <v>800</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>400</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>500</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -876,19 +883,19 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -897,114 +904,120 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>700</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>800</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>400</v>
       </c>
       <c r="Z10" s="3">
         <v>400</v>
       </c>
       <c r="AA10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,28 +1055,28 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -1080,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
@@ -1089,13 +1103,13 @@
         <v>100</v>
       </c>
       <c r="U12" s="3">
+        <v>100</v>
+      </c>
+      <c r="V12" s="3">
         <v>200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2000</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>8</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1209,23 +1229,23 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1233,11 +1253,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1245,11 +1265,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>1600</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1299,16 +1322,16 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1323,13 +1346,13 @@
         <v>0</v>
       </c>
       <c r="V15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W15" s="3">
+        <v>100</v>
+      </c>
+      <c r="X15" s="3">
         <v>300</v>
-      </c>
-      <c r="X15" s="3">
-        <v>200</v>
       </c>
       <c r="Y15" s="3">
         <v>200</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1390,19 +1417,19 @@
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
@@ -1414,114 +1441,120 @@
         <v>300</v>
       </c>
       <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4900</v>
-      </c>
-      <c r="W17" s="3">
-        <v>600</v>
       </c>
       <c r="X17" s="3">
         <v>600</v>
       </c>
       <c r="Y17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z17" s="3">
         <v>400</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>600</v>
       </c>
       <c r="AA17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>700</v>
-      </c>
       <c r="G18" s="3">
+        <v>600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
       <c r="S18" s="3">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>200</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,23 +1592,23 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1612,104 +1646,110 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>-100</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>700</v>
-      </c>
       <c r="G21" s="3">
+        <v>600</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>400</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>200</v>
       </c>
       <c r="Z21" s="3">
         <v>200</v>
       </c>
       <c r="AA21" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1780,117 +1820,123 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>700</v>
-      </c>
       <c r="G23" s="3">
+        <v>600</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
       <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
-        <v>100</v>
-      </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z23" s="3">
         <v>0</v>
       </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1899,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1911,10 +1957,10 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -1923,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,74 +2060,77 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>600</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="K26" s="3">
+        <v>500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>500</v>
+      </c>
+      <c r="N26" s="3">
+        <v>200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>300</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>400</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>200</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>300</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
@@ -2086,76 +2138,79 @@
         <v>0</v>
       </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>600</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="K27" s="3">
+        <v>500</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
+        <v>500</v>
+      </c>
+      <c r="N27" s="3">
+        <v>200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>300</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>400</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>200</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>300</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
@@ -2163,10 +2218,13 @@
         <v>0</v>
       </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,22 +2552,22 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2536,88 +2606,91 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>100</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>600</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="K33" s="3">
+        <v>500</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>500</v>
+      </c>
+      <c r="N33" s="3">
+        <v>200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>300</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>400</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>200</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>300</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
@@ -2625,10 +2698,13 @@
         <v>0</v>
       </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,74 +2780,77 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>600</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="K35" s="3">
+        <v>500</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>500</v>
+      </c>
+      <c r="N35" s="3">
+        <v>200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>300</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>400</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>200</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>300</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
@@ -2779,92 +2858,98 @@
         <v>0</v>
       </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>900</v>
+      </c>
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>900</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Z41" s="3">
-        <v>100</v>
-      </c>
       <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,85 +3165,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
-      </c>
-      <c r="F43" s="3">
-        <v>800</v>
       </c>
       <c r="G43" s="3">
         <v>800</v>
       </c>
       <c r="H43" s="3">
+        <v>700</v>
+      </c>
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>800</v>
       </c>
       <c r="M43" s="3">
         <v>800</v>
       </c>
       <c r="N43" s="3">
+        <v>800</v>
+      </c>
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>800</v>
-      </c>
-      <c r="U43" s="3">
-        <v>700</v>
       </c>
       <c r="V43" s="3">
         <v>700</v>
       </c>
       <c r="W43" s="3">
+        <v>700</v>
+      </c>
+      <c r="X43" s="3">
         <v>1600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,13 +3325,16 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -3289,72 +3388,75 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
-        <v>100</v>
-      </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
       <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
         <v>300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="E46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1000</v>
       </c>
       <c r="S46" s="3">
         <v>1000</v>
@@ -3363,28 +3465,31 @@
         <v>1000</v>
       </c>
       <c r="U46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3446,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X47" s="3">
         <v>200</v>
@@ -3457,11 +3562,14 @@
       <c r="Z47" s="3">
         <v>200</v>
       </c>
-      <c r="AA47" s="3" t="s">
+      <c r="AA47" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3487,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>400</v>
@@ -3499,13 +3607,13 @@
         <v>400</v>
       </c>
       <c r="O48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P48" s="3">
         <v>300</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3600,22 +3711,25 @@
         <v>0</v>
       </c>
       <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
         <v>3000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="E54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
-        <v>2000</v>
-      </c>
       <c r="I54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J54" s="3">
         <v>1600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1800</v>
       </c>
       <c r="K54" s="3">
         <v>1800</v>
       </c>
       <c r="L54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1000</v>
       </c>
       <c r="R54" s="3">
         <v>1000</v>
       </c>
       <c r="S54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5200</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>5500</v>
       </c>
       <c r="Z54" s="3">
         <v>5500</v>
       </c>
       <c r="AA54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="AB54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4069,13 +4200,13 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -4093,7 +4224,7 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
@@ -4108,22 +4239,22 @@
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
-      </c>
-      <c r="X57" s="3">
-        <v>200</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
@@ -4132,10 +4263,13 @@
         <v>200</v>
       </c>
       <c r="AA57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4145,8 +4279,8 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4170,63 +4304,66 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>100</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>100</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
       <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>200</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>300</v>
       </c>
-      <c r="Z58" s="3">
-        <v>100</v>
-      </c>
       <c r="AA58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
       </c>
       <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
@@ -4238,19 +4375,19 @@
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>400</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
@@ -4259,11 +4396,11 @@
         <v>400</v>
       </c>
       <c r="R59" s="3">
+        <v>400</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
-        <v>100</v>
-      </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
@@ -4274,13 +4411,13 @@
         <v>100</v>
       </c>
       <c r="W59" s="3">
+        <v>100</v>
+      </c>
+      <c r="X59" s="3">
         <v>200</v>
       </c>
-      <c r="X59" s="3">
-        <v>100</v>
-      </c>
       <c r="Y59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z59" s="3">
         <v>200</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4297,76 +4437,79 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
+        <v>300</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
       </c>
       <c r="H60" s="3">
+        <v>300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
         <v>400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
       </c>
       <c r="L60" s="3">
+        <v>300</v>
+      </c>
+      <c r="M60" s="3">
         <v>400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>500</v>
       </c>
       <c r="N60" s="3">
         <v>500</v>
       </c>
       <c r="O60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P60" s="3">
         <v>600</v>
       </c>
       <c r="Q60" s="3">
+        <v>600</v>
+      </c>
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4392,7 +4535,7 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>400</v>
@@ -4404,14 +4547,14 @@
         <v>400</v>
       </c>
       <c r="O61" s="3">
+        <v>400</v>
+      </c>
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4477,8 +4623,8 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -4501,8 +4647,8 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4762,10 +4920,10 @@
         <v>400</v>
       </c>
       <c r="F66" s="3">
+        <v>400</v>
+      </c>
+      <c r="G66" s="3">
         <v>300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
@@ -4777,58 +4935,61 @@
         <v>400</v>
       </c>
       <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>900</v>
       </c>
       <c r="N66" s="3">
         <v>900</v>
       </c>
       <c r="O66" s="3">
+        <v>900</v>
+      </c>
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="I72" s="3">
         <v>-14000</v>
       </c>
-      <c r="E72" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-14800</v>
       </c>
-      <c r="H72" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-20100</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-19100</v>
       </c>
       <c r="S72" s="3">
         <v>-19100</v>
       </c>
       <c r="T72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="U72" s="3">
         <v>-18100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-19100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-18500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-14200</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-13800</v>
       </c>
       <c r="Y72" s="3">
         <v>-13800</v>
       </c>
       <c r="Z72" s="3">
-        <v>-14300</v>
+        <v>-13800</v>
       </c>
       <c r="AA72" s="3">
         <v>-14300</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-14300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="E76" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="F76" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="G76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1400</v>
       </c>
-      <c r="H76" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>400</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
       <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
         <v>400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4800</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>5000</v>
       </c>
       <c r="AA76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,156 +5815,162 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>600</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="K81" s="3">
+        <v>500</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>500</v>
+      </c>
+      <c r="N81" s="3">
+        <v>200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>300</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>400</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>200</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>300</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
@@ -5783,10 +5978,13 @@
         <v>0</v>
       </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5856,10 +6055,10 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -5874,13 +6073,13 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
         <v>300</v>
-      </c>
-      <c r="X83" s="3">
-        <v>200</v>
       </c>
       <c r="Y83" s="3">
         <v>200</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>300</v>
       </c>
       <c r="L89" s="3">
         <v>300</v>
       </c>
       <c r="M89" s="3">
+        <v>300</v>
+      </c>
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1400</v>
       </c>
-      <c r="W89" s="3">
-        <v>100</v>
-      </c>
       <c r="X89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,19 +6602,20 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -6405,8 +6626,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -6417,8 +6638,8 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6432,8 +6653,8 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
@@ -6441,26 +6662,29 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z91" s="3">
-        <v>-300</v>
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6673,25 +6903,28 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>1400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7063,49 +7309,52 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-300</v>
-      </c>
-      <c r="U100" s="3">
-        <v>200</v>
       </c>
       <c r="V100" s="3">
         <v>200</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
-        <v>100</v>
-      </c>
       <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>300</v>
       </c>
       <c r="L102" s="3">
         <v>300</v>
       </c>
       <c r="M102" s="3">
+        <v>300</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>LMDCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,204 +665,210 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
       <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
         <v>600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -874,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -886,19 +892,19 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -907,117 +913,123 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>700</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>800</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>400</v>
       </c>
       <c r="AA10" s="3">
         <v>400</v>
       </c>
       <c r="AB10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,40 +1058,41 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -1097,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
@@ -1106,13 +1119,13 @@
         <v>100</v>
       </c>
       <c r="V12" s="3">
+        <v>100</v>
+      </c>
+      <c r="W12" s="3">
         <v>200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2000</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>8</v>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,13 +1222,16 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1232,23 +1251,23 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1256,11 +1275,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1268,11 +1287,11 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3">
         <v>1600</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1325,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1349,13 +1371,13 @@
         <v>0</v>
       </c>
       <c r="W15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y15" s="3">
         <v>300</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>200</v>
       </c>
       <c r="Z15" s="3">
         <v>200</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,13 +1418,14 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
@@ -1420,19 +1446,19 @@
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
@@ -1444,117 +1470,123 @@
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4900</v>
-      </c>
-      <c r="X17" s="3">
-        <v>600</v>
       </c>
       <c r="Y17" s="3">
         <v>600</v>
       </c>
       <c r="Z17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA17" s="3">
         <v>400</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>600</v>
       </c>
       <c r="AB17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>400</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
+        <v>600</v>
+      </c>
+      <c r="O18" s="3">
+        <v>200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>400</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="R18" s="3">
+        <v>500</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>600</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="T18" s="3">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>500</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
-        <v>600</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="Z18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
-        <v>300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>500</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>100</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>500</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="AC18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,35 +1615,36 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1649,22 +1682,25 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>-100</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,87 +1708,90 @@
         <v>-100</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
+        <v>500</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
+        <v>200</v>
+      </c>
+      <c r="P21" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="W21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
-        <v>500</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>400</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>200</v>
       </c>
       <c r="AA21" s="3">
         <v>200</v>
       </c>
       <c r="AB21" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1823,8 +1862,11 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1832,114 +1874,117 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
+        <v>500</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
+        <v>600</v>
+      </c>
+      <c r="O23" s="3">
+        <v>200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>300</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
+        <v>400</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>400</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
-        <v>100</v>
-      </c>
       <c r="Z23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
       <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1948,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1960,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -1972,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="Y24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA24" s="3">
         <v>0</v>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,77 +2111,80 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
       <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
@@ -2141,10 +2192,13 @@
         <v>0</v>
       </c>
       <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2152,68 +2206,68 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
         <v>0</v>
       </c>
@@ -2221,10 +2275,13 @@
         <v>0</v>
       </c>
       <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,34 +2609,37 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2609,22 +2678,25 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>100</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2632,68 +2704,68 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
         <v>0</v>
       </c>
@@ -2701,10 +2773,13 @@
         <v>0</v>
       </c>
       <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2858,11 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2792,68 +2870,68 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
         <v>0</v>
       </c>
@@ -2861,95 +2939,101 @@
         <v>0</v>
       </c>
       <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
-        <v>1700</v>
-      </c>
       <c r="F41" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="G41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H41" s="3">
         <v>1400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>900</v>
       </c>
       <c r="I41" s="3">
         <v>900</v>
       </c>
       <c r="J41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
-      <c r="AA41" s="3">
-        <v>100</v>
-      </c>
       <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,88 +3257,94 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
+        <v>800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>900</v>
+      </c>
+      <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
-        <v>900</v>
-      </c>
-      <c r="J43" s="3">
-        <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>700</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>800</v>
       </c>
       <c r="N43" s="3">
         <v>800</v>
       </c>
       <c r="O43" s="3">
+        <v>800</v>
+      </c>
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>800</v>
-      </c>
-      <c r="V43" s="3">
-        <v>700</v>
       </c>
       <c r="W43" s="3">
         <v>700</v>
       </c>
       <c r="X43" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y43" s="3">
         <v>1600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,17 +3423,20 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
@@ -3391,75 +3489,78 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
-        <v>100</v>
-      </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
       <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
         <v>300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2500</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2100</v>
       </c>
       <c r="G46" s="3">
         <v>2200</v>
       </c>
       <c r="H46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
-      </c>
-      <c r="S46" s="3">
-        <v>1000</v>
       </c>
       <c r="T46" s="3">
         <v>1000</v>
@@ -3468,28 +3569,31 @@
         <v>1000</v>
       </c>
       <c r="V46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W46" s="3">
         <v>900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3554,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="3">
         <v>200</v>
@@ -3565,11 +3669,14 @@
       <c r="AA47" s="3">
         <v>200</v>
       </c>
-      <c r="AB47" s="3" t="s">
+      <c r="AB47" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3598,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
@@ -3610,13 +3717,13 @@
         <v>400</v>
       </c>
       <c r="P48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q48" s="3">
         <v>300</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3648,8 +3755,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3714,22 +3824,25 @@
         <v>0</v>
       </c>
       <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
         <v>3000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E54" s="3">
         <v>2500</v>
       </c>
       <c r="F54" s="3">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="G54" s="3">
         <v>2200</v>
       </c>
       <c r="H54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1600</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1800</v>
       </c>
       <c r="L54" s="3">
         <v>1800</v>
       </c>
       <c r="M54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N54" s="3">
         <v>2100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1400</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1000</v>
       </c>
       <c r="S54" s="3">
         <v>1000</v>
       </c>
       <c r="T54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U54" s="3">
         <v>1100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5200</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>5500</v>
       </c>
       <c r="AA54" s="3">
         <v>5500</v>
       </c>
       <c r="AB54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="AC54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,13 +4317,14 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -4203,13 +4333,13 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -4227,7 +4357,7 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -4242,22 +4372,22 @@
         <v>200</v>
       </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>200</v>
       </c>
       <c r="Z57" s="3">
         <v>200</v>
@@ -4266,15 +4396,18 @@
         <v>200</v>
       </c>
       <c r="AB57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -4282,8 +4415,8 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -4307,49 +4440,52 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>100</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
       </c>
       <c r="V58" s="3">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
         <v>400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>200</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
       <c r="Y58" s="3">
         <v>0</v>
       </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>300</v>
       </c>
-      <c r="AA58" s="3">
-        <v>100</v>
-      </c>
       <c r="AB58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4357,16 +4493,16 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -4378,19 +4514,19 @@
         <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
       <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
@@ -4399,11 +4535,11 @@
         <v>400</v>
       </c>
       <c r="S59" s="3">
+        <v>400</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
-        <v>100</v>
-      </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
@@ -4414,13 +4550,13 @@
         <v>100</v>
       </c>
       <c r="X59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
-      <c r="Y59" s="3">
-        <v>100</v>
-      </c>
       <c r="Z59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA59" s="3">
         <v>200</v>
@@ -4428,22 +4564,25 @@
       <c r="AB59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
       <c r="F60" s="3">
+        <v>300</v>
+      </c>
+      <c r="G60" s="3">
         <v>400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -4455,66 +4594,69 @@
         <v>400</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
       </c>
       <c r="M60" s="3">
+        <v>300</v>
+      </c>
+      <c r="N60" s="3">
         <v>400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
       </c>
       <c r="P60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q60" s="3">
         <v>600</v>
       </c>
       <c r="R60" s="3">
+        <v>600</v>
+      </c>
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -4538,7 +4680,7 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>400</v>
@@ -4550,14 +4692,14 @@
         <v>400</v>
       </c>
       <c r="P61" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q61" s="3">
         <v>200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4626,8 +4771,8 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
@@ -4650,8 +4795,8 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5062,11 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4923,10 +5080,10 @@
         <v>400</v>
       </c>
       <c r="G66" s="3">
+        <v>400</v>
+      </c>
+      <c r="H66" s="3">
         <v>300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
@@ -4938,58 +5095,61 @@
         <v>400</v>
       </c>
       <c r="L66" s="3">
+        <v>400</v>
+      </c>
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>900</v>
       </c>
       <c r="O66" s="3">
         <v>900</v>
       </c>
       <c r="P66" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-13500</v>
+        <v>-14000</v>
       </c>
       <c r="E72" s="3">
-        <v>-13400</v>
+        <v>-13900</v>
       </c>
       <c r="F72" s="3">
-        <v>-13900</v>
+        <v>-13800</v>
       </c>
       <c r="G72" s="3">
-        <v>-13600</v>
+        <v>-14200</v>
       </c>
       <c r="H72" s="3">
-        <v>-14200</v>
+        <v>-14000</v>
       </c>
       <c r="I72" s="3">
-        <v>-14000</v>
+        <v>-14600</v>
       </c>
       <c r="J72" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-14500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-20700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-20100</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-19100</v>
       </c>
       <c r="T72" s="3">
         <v>-19100</v>
       </c>
       <c r="U72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="V72" s="3">
         <v>-18100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-19100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-18500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-14200</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-13800</v>
       </c>
       <c r="Z72" s="3">
         <v>-13800</v>
       </c>
       <c r="AA72" s="3">
-        <v>-14300</v>
+        <v>-13800</v>
       </c>
       <c r="AB72" s="3">
         <v>-14300</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>-14300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="E76" s="3">
         <v>2100</v>
       </c>
       <c r="F76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G76" s="3">
         <v>1700</v>
       </c>
-      <c r="G76" s="3">
-        <v>1900</v>
-      </c>
       <c r="H76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N76" s="3">
         <v>1300</v>
       </c>
-      <c r="I76" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>400</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
       <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
         <v>400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4800</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>5000</v>
       </c>
       <c r="AB76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6006,99 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5912,68 +6106,68 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
         <v>0</v>
       </c>
@@ -5981,10 +6175,13 @@
         <v>0</v>
       </c>
       <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6058,10 +6256,10 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -6076,13 +6274,13 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y83" s="3">
         <v>300</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>200</v>
       </c>
       <c r="Z83" s="3">
         <v>200</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>300</v>
       </c>
       <c r="M89" s="3">
         <v>300</v>
       </c>
       <c r="N89" s="3">
+        <v>300</v>
+      </c>
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1400</v>
       </c>
-      <c r="X89" s="3">
-        <v>100</v>
-      </c>
       <c r="Y89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,19 +6822,20 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -6629,8 +6849,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -6641,8 +6861,8 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6656,8 +6876,8 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
@@ -6665,26 +6885,29 @@
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>8</v>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA91" s="3">
-        <v>-300</v>
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6906,25 +7135,28 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>1400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7312,49 +7557,52 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-300</v>
-      </c>
-      <c r="V100" s="3">
-        <v>200</v>
       </c>
       <c r="W100" s="3">
         <v>200</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
-        <v>100</v>
-      </c>
       <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7681,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>300</v>
       </c>
       <c r="M102" s="3">
         <v>300</v>
       </c>
       <c r="N102" s="3">
+        <v>300</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>LMDCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,130 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,19 +805,19 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>800</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -821,49 +829,55 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>700</v>
       </c>
-      <c r="W8" s="3">
-        <v>100</v>
-      </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
         <v>600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -871,10 +885,10 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -883,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -895,40 +909,40 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
@@ -943,10 +957,16 @@
         <v>100</v>
       </c>
       <c r="AC9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -963,73 +983,79 @@
         <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>700</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
         <v>700</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>400</v>
       </c>
-      <c r="AC10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,46 +1085,48 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
@@ -1113,25 +1141,25 @@
         <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
       </c>
       <c r="W12" s="3">
+        <v>100</v>
+      </c>
+      <c r="X12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3">
         <v>200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>2000</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>8</v>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,19 +1259,25 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>200</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1254,50 +1294,50 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>1600</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
+      <c r="Z14" s="3">
+        <v>1600</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1308,8 +1348,14 @@
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1350,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1362,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1374,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="X15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA15" s="3">
         <v>300</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>200</v>
       </c>
       <c r="AB15" s="3">
         <v>200</v>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,19 +1471,21 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
@@ -1449,7 +1503,7 @@
         <v>300</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
@@ -1458,13 +1512,13 @@
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>-100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
@@ -1473,120 +1527,132 @@
         <v>300</v>
       </c>
       <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>4900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>600</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>600</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>400</v>
       </c>
       <c r="AB17" s="3">
         <v>600</v>
       </c>
       <c r="AC17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>600</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>500</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
       <c r="T18" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
+        <v>100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>200</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,41 +1682,43 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1685,119 +1753,131 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>100</v>
-      </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>700</v>
       </c>
       <c r="I21" s="3">
         <v>-200</v>
       </c>
       <c r="J21" s="3">
+        <v>700</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>500</v>
       </c>
       <c r="S21" s="3">
         <v>-200</v>
       </c>
       <c r="T21" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="U21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V21" s="3">
+        <v>100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1865,96 +1945,108 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>700</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>700</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>500</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
       <c r="N23" s="3">
+        <v>500</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>400</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
       </c>
       <c r="T23" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>400</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-4300</v>
       </c>
       <c r="Y23" s="3">
         <v>-400</v>
       </c>
       <c r="Z23" s="3">
-        <v>100</v>
+        <v>-4300</v>
       </c>
       <c r="AA23" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="AB23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1990,49 +2082,55 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
       <c r="X24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
       <c r="Z24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
       <c r="AB24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,34 +2212,40 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>600</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>500</v>
@@ -2153,78 +2257,84 @@
         <v>500</v>
       </c>
       <c r="O26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>300</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-4300</v>
       </c>
       <c r="Y26" s="3">
         <v>-400</v>
       </c>
       <c r="Z26" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="AA26" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
       <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>600</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
       </c>
       <c r="J27" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L27" s="3">
         <v>500</v>
@@ -2236,52 +2346,58 @@
         <v>500</v>
       </c>
       <c r="O27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P27" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>300</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-4300</v>
       </c>
       <c r="Y27" s="3">
         <v>-400</v>
       </c>
       <c r="Z27" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="AA27" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="AB27" s="3">
         <v>0</v>
       </c>
       <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,40 +2746,46 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2681,48 +2821,54 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-100</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>600</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
       </c>
       <c r="J33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L33" s="3">
         <v>500</v>
@@ -2734,52 +2880,58 @@
         <v>500</v>
       </c>
       <c r="O33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P33" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>300</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-4300</v>
       </c>
       <c r="Y33" s="3">
         <v>-400</v>
       </c>
       <c r="Z33" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="AA33" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="AB33" s="3">
         <v>0</v>
       </c>
       <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,34 +3013,40 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>600</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
       </c>
       <c r="J35" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L35" s="3">
         <v>500</v>
@@ -2900,140 +3058,152 @@
         <v>500</v>
       </c>
       <c r="O35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P35" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>300</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-4300</v>
       </c>
       <c r="Y35" s="3">
         <v>-400</v>
       </c>
       <c r="Z35" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="AA35" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="AB35" s="3">
         <v>0</v>
       </c>
       <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,58 +3266,60 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>900</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1100</v>
       </c>
       <c r="N41" s="3">
         <v>900</v>
       </c>
       <c r="O41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>200</v>
-      </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>200</v>
@@ -3163,22 +3337,28 @@
         <v>200</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC41" s="3">
         <v>200</v>
       </c>
-      <c r="AB41" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,91 +3440,103 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
         <v>800</v>
       </c>
       <c r="F43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>800</v>
+      </c>
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
-      </c>
-      <c r="O43" s="3">
-        <v>800</v>
-      </c>
-      <c r="P43" s="3">
-        <v>700</v>
       </c>
       <c r="Q43" s="3">
         <v>800</v>
       </c>
       <c r="R43" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="S43" s="3">
         <v>800</v>
       </c>
       <c r="T43" s="3">
+        <v>900</v>
+      </c>
+      <c r="U43" s="3">
+        <v>800</v>
+      </c>
+      <c r="V43" s="3">
         <v>700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>1700</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>2000</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>2300</v>
       </c>
       <c r="AC43" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,23 +3618,29 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
@@ -3492,69 +3690,75 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>100</v>
-      </c>
       <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3">
         <v>300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F46" s="3">
         <v>2600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1700</v>
       </c>
       <c r="O46" s="3">
         <v>1400</v>
       </c>
       <c r="P46" s="3">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="Q46" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="R46" s="3">
         <v>1100</v>
@@ -3563,37 +3767,43 @@
         <v>900</v>
       </c>
       <c r="T46" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="U46" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="V46" s="3">
         <v>1000</v>
       </c>
       <c r="W46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y46" s="3">
         <v>900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>2500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>2800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3661,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="Y47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="3">
         <v>200</v>
@@ -3672,11 +3882,17 @@
       <c r="AB47" s="3">
         <v>200</v>
       </c>
-      <c r="AC47" s="3" t="s">
+      <c r="AC47" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3708,10 +3924,10 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>400</v>
@@ -3720,17 +3936,17 @@
         <v>400</v>
       </c>
       <c r="Q48" s="3">
+        <v>400</v>
+      </c>
+      <c r="R48" s="3">
+        <v>400</v>
+      </c>
+      <c r="S48" s="3">
         <v>300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>300</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
@@ -3758,8 +3974,14 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3827,22 +4049,28 @@
         <v>0</v>
       </c>
       <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
         <v>3000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>3100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>2800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>2400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E54" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="F54" s="3">
         <v>2600</v>
       </c>
       <c r="G54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I54" s="3">
         <v>2200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2100</v>
       </c>
       <c r="O54" s="3">
         <v>1800</v>
       </c>
       <c r="P54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R54" s="3">
         <v>1500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1000</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U54" s="3">
-        <v>1100</v>
       </c>
       <c r="V54" s="3">
         <v>1000</v>
       </c>
       <c r="W54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y54" s="3">
         <v>900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>5000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>5200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>5500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>5500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,34 +4578,36 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -4360,10 +4622,10 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
@@ -4375,13 +4637,13 @@
         <v>200</v>
       </c>
       <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
+        <v>200</v>
+      </c>
+      <c r="W57" s="3">
         <v>500</v>
-      </c>
-      <c r="V57" s="3">
-        <v>400</v>
-      </c>
-      <c r="W57" s="3">
-        <v>300</v>
       </c>
       <c r="X57" s="3">
         <v>400</v>
@@ -4390,39 +4652,45 @@
         <v>300</v>
       </c>
       <c r="Z57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AA57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB57" s="3">
         <v>200</v>
       </c>
       <c r="AC57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -4443,49 +4711,55 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>100</v>
       </c>
       <c r="V58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
         <v>400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>200</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
       <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <v>300</v>
       </c>
-      <c r="AB58" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4493,22 +4767,22 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -4517,35 +4791,35 @@
         <v>300</v>
       </c>
       <c r="M59" s="3">
+        <v>300</v>
+      </c>
+      <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
       </c>
       <c r="R59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
       </c>
       <c r="T59" s="3">
+        <v>400</v>
+      </c>
+      <c r="U59" s="3">
+        <v>400</v>
+      </c>
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
-        <v>100</v>
-      </c>
-      <c r="V59" s="3">
-        <v>100</v>
-      </c>
       <c r="W59" s="3">
         <v>100</v>
       </c>
@@ -4553,7 +4827,7 @@
         <v>100</v>
       </c>
       <c r="Y59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z59" s="3">
         <v>100</v>
@@ -4562,96 +4836,108 @@
         <v>200</v>
       </c>
       <c r="AB59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>500</v>
+      </c>
+      <c r="G60" s="3">
         <v>300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
+        <v>400</v>
+      </c>
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
-      </c>
-      <c r="R60" s="3">
-        <v>600</v>
-      </c>
-      <c r="S60" s="3">
-        <v>800</v>
       </c>
       <c r="T60" s="3">
         <v>600</v>
       </c>
       <c r="U60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="V60" s="3">
         <v>600</v>
       </c>
       <c r="W60" s="3">
+        <v>700</v>
+      </c>
+      <c r="X60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y60" s="3">
         <v>900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4659,10 +4945,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -4683,10 +4969,10 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>400</v>
@@ -4695,17 +4981,17 @@
         <v>400</v>
       </c>
       <c r="Q61" s="3">
+        <v>400</v>
+      </c>
+      <c r="R61" s="3">
+        <v>400</v>
+      </c>
+      <c r="S61" s="3">
         <v>200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4733,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4774,11 +5066,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
@@ -4798,11 +5090,11 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4816,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,13 +5375,19 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -5083,13 +5399,13 @@
         <v>400</v>
       </c>
       <c r="H66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
       </c>
       <c r="J66" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
@@ -5098,19 +5414,19 @@
         <v>400</v>
       </c>
       <c r="M66" s="3">
+        <v>400</v>
+      </c>
+      <c r="N66" s="3">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
-      </c>
-      <c r="P66" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>800</v>
       </c>
       <c r="R66" s="3">
         <v>900</v>
@@ -5119,37 +5435,43 @@
         <v>800</v>
       </c>
       <c r="T66" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="U66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="V66" s="3">
         <v>600</v>
       </c>
       <c r="W66" s="3">
+        <v>700</v>
+      </c>
+      <c r="X66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y66" s="3">
         <v>900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14000</v>
       </c>
-      <c r="E72" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="I72" s="3">
         <v>-14200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-14000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-14600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-14400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-14500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-14800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-15700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-15300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-19300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-19700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-20700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-20100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-19100</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-18100</v>
       </c>
       <c r="W72" s="3">
         <v>-19100</v>
       </c>
       <c r="X72" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-18500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-14200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-13800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-13800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-14300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E76" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="F76" s="3">
         <v>2200</v>
       </c>
       <c r="G76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I76" s="3">
         <v>1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>900</v>
-      </c>
-      <c r="P76" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>300</v>
       </c>
       <c r="R76" s="3">
         <v>600</v>
       </c>
       <c r="S76" s="3">
+        <v>300</v>
+      </c>
+      <c r="T76" s="3">
+        <v>600</v>
+      </c>
+      <c r="U76" s="3">
         <v>200</v>
-      </c>
-      <c r="T76" s="3">
-        <v>400</v>
-      </c>
-      <c r="U76" s="3">
-        <v>300</v>
       </c>
       <c r="V76" s="3">
         <v>400</v>
       </c>
       <c r="W76" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="X76" s="3">
         <v>400</v>
       </c>
       <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA76" s="3">
         <v>4500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>4900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>4800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>5000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,122 +6387,134 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>600</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
       </c>
       <c r="J81" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L81" s="3">
         <v>500</v>
@@ -6136,52 +6526,58 @@
         <v>500</v>
       </c>
       <c r="O81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P81" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>300</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-4300</v>
       </c>
       <c r="Y81" s="3">
         <v>-400</v>
       </c>
       <c r="Z81" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="AA81" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="AB81" s="3">
         <v>0</v>
       </c>
       <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6259,13 +6657,13 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -6277,16 +6675,16 @@
         <v>0</v>
       </c>
       <c r="X83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3">
         <v>300</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>200</v>
       </c>
       <c r="AB83" s="3">
         <v>200</v>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>300</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>200</v>
       </c>
       <c r="P89" s="3">
         <v>300</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="R89" s="3">
         <v>300</v>
       </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
+        <v>300</v>
+      </c>
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y89" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB89" s="3">
         <v>700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6852,11 +7294,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -6864,11 +7306,11 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6879,35 +7321,41 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3" t="s">
+      <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA91" s="3" t="s">
+      <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7138,25 +7598,31 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>1400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>-700</v>
       </c>
       <c r="AB94" s="3">
         <v>-500</v>
       </c>
       <c r="AC94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7560,49 +8052,55 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
-      <c r="AB100" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,55 +8182,61 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
-      </c>
-      <c r="K102" s="3">
-        <v>300</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-200</v>
       </c>
       <c r="M102" s="3">
         <v>300</v>
       </c>
       <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
-      </c>
-      <c r="O102" s="3">
-        <v>200</v>
       </c>
       <c r="P102" s="3">
         <v>300</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
@@ -7747,24 +8251,30 @@
         <v>100</v>
       </c>
       <c r="W102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA102" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="3">
         <v>-200</v>
       </c>
       <c r="AC102" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LMDCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>LMDCF</t>
   </si>
@@ -811,7 +811,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -1099,7 +1099,7 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -1485,7 +1485,7 @@
         <v>500</v>
       </c>
       <c r="F17" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
@@ -1797,7 +1797,7 @@
         <v>-200</v>
       </c>
       <c r="J21" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K21" s="3">
         <v>-200</v>
@@ -1867,8 +1867,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -1975,7 +1975,7 @@
         <v>-200</v>
       </c>
       <c r="J23" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
@@ -2223,8 +2223,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>300</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
@@ -2312,8 +2312,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>300</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
@@ -2846,8 +2846,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>300</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
@@ -3024,8 +3024,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>300</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
@@ -3274,7 +3274,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="3">
         <v>1100</v>
@@ -3289,7 +3289,7 @@
         <v>1800</v>
       </c>
       <c r="I41" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J41" s="3">
         <v>1400</v>
@@ -3722,10 +3722,10 @@
         <v>2400</v>
       </c>
       <c r="E46" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F46" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G46" s="3">
         <v>2400</v>
@@ -3734,10 +3734,10 @@
         <v>2500</v>
       </c>
       <c r="I46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J46" s="3">
         <v>2200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>2300</v>
       </c>
       <c r="K46" s="3">
         <v>1700</v>
@@ -4431,22 +4431,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F54" s="3">
         <v>2500</v>
       </c>
-      <c r="E54" s="3">
-        <v>2300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2600</v>
-      </c>
       <c r="G54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H54" s="3">
         <v>2500</v>
       </c>
-      <c r="H54" s="3">
-        <v>2600</v>
-      </c>
       <c r="I54" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J54" s="3">
         <v>2300</v>
@@ -5865,25 +5865,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I72" s="3">
         <v>-13900</v>
       </c>
-      <c r="E72" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-13800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-13800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-14200</v>
-      </c>
       <c r="J72" s="3">
-        <v>-14000</v>
+        <v>-13700</v>
       </c>
       <c r="K72" s="3">
         <v>-14600</v>
@@ -6221,25 +6221,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F76" s="3">
         <v>2100</v>
       </c>
-      <c r="E76" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F76" s="3">
-        <v>2200</v>
-      </c>
       <c r="G76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H76" s="3">
         <v>2100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>2200</v>
       </c>
       <c r="I76" s="3">
         <v>1700</v>
       </c>
       <c r="J76" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K76" s="3">
         <v>1400</v>
@@ -6492,8 +6492,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>300</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
